--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_24_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_24_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3154378.240175404</v>
+        <v>-3155052.506394216</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10305771.19863254</v>
+        <v>10305771.19863255</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>103.0193684323636</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>28.25463438122081</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>103.0193684323636</v>
+        <v>90.73945971522579</v>
       </c>
       <c r="F11" t="n">
-        <v>103.0193684323636</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>16.10261709965996</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.38220823434503</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>103.0193684323636</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.35725148088073</v>
+        <v>103.0193684323636</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,67 +1613,67 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>28.25463438122088</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>103.0193684323636</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>16.10261709965996</v>
+      </c>
+      <c r="U14" t="n">
+        <v>46.38220823434503</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>103.0193684323636</v>
-      </c>
-      <c r="H14" t="n">
-        <v>103.0193684323636</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>46.38220823434506</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>103.0193684323636</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>20.99909704345519</v>
+        <v>20.99909704345516</v>
       </c>
       <c r="V15" t="n">
-        <v>27.87492793801141</v>
+        <v>27.87492793801138</v>
       </c>
       <c r="W15" t="n">
-        <v>46.76932394950575</v>
+        <v>46.76932394950572</v>
       </c>
       <c r="X15" t="n">
-        <v>0.8473259920636167</v>
+        <v>0.8473259920635883</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.7570365658905018</v>
+        <v>0.7570365658904734</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>15.39869716835016</v>
+        <v>15.39869716835013</v>
       </c>
       <c r="T16" t="n">
-        <v>22.1146857834363</v>
+        <v>22.11468578343627</v>
       </c>
       <c r="U16" t="n">
-        <v>81.38181383316089</v>
+        <v>81.38181383316086</v>
       </c>
       <c r="V16" t="n">
-        <v>47.21198411241414</v>
+        <v>47.21198411241411</v>
       </c>
       <c r="W16" t="n">
-        <v>81.59733912517714</v>
+        <v>81.59733912517711</v>
       </c>
       <c r="X16" t="n">
-        <v>20.78399617762329</v>
+        <v>20.78399617762327</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.65899414068093</v>
+        <v>13.6589941406809</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>30.63521919901547</v>
       </c>
       <c r="D17" t="n">
-        <v>20.04536904869107</v>
+        <v>20.04536904869087</v>
       </c>
       <c r="E17" t="n">
         <v>47.2926975002697</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>14.60329614542093</v>
+        <v>14.60329614542125</v>
       </c>
       <c r="X20" t="n">
         <v>35.09342810647695</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>5.990277636502277</v>
+        <v>5.99027763650227</v>
       </c>
       <c r="T26" t="n">
-        <v>28.7614370749911</v>
+        <v>28.76143707499111</v>
       </c>
       <c r="U26" t="n">
         <v>59.04102820967617</v>
@@ -2804,7 +2804,7 @@
         <v>214.6092065056287</v>
       </c>
       <c r="G29" t="n">
-        <v>222.5635800030825</v>
+        <v>222.5635800030826</v>
       </c>
       <c r="H29" t="n">
         <v>142.3708333359093</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.990277636502249</v>
+        <v>5.99027763650227</v>
       </c>
       <c r="T29" t="n">
-        <v>28.76143707499107</v>
+        <v>28.76143707499111</v>
       </c>
       <c r="U29" t="n">
-        <v>59.04102820967614</v>
+        <v>59.04102820967617</v>
       </c>
       <c r="V29" t="n">
-        <v>135.4854192340521</v>
+        <v>135.4854192340522</v>
       </c>
       <c r="W29" t="n">
-        <v>156.9741294813302</v>
+        <v>156.9741294813303</v>
       </c>
       <c r="X29" t="n">
         <v>177.4642614423863</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>6.879280512658395</v>
+        <v>6.879280512658424</v>
       </c>
       <c r="U30" t="n">
-        <v>33.65791701878627</v>
+        <v>33.6579170187863</v>
       </c>
       <c r="V30" t="n">
-        <v>40.53374791334249</v>
+        <v>40.53374791334252</v>
       </c>
       <c r="W30" t="n">
-        <v>59.42814392483683</v>
+        <v>59.42814392483686</v>
       </c>
       <c r="X30" t="n">
-        <v>13.5061459673947</v>
+        <v>13.50614596739473</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.41585654122159</v>
+        <v>13.41585654122161</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>28.05751714368125</v>
+        <v>28.05751714368127</v>
       </c>
       <c r="T31" t="n">
-        <v>34.77350575876739</v>
+        <v>34.77350575876741</v>
       </c>
       <c r="U31" t="n">
-        <v>94.04063380849198</v>
+        <v>94.040633808492</v>
       </c>
       <c r="V31" t="n">
-        <v>59.87080408774523</v>
+        <v>59.87080408774526</v>
       </c>
       <c r="W31" t="n">
-        <v>94.25615910050823</v>
+        <v>94.25615910050826</v>
       </c>
       <c r="X31" t="n">
-        <v>33.44281615295438</v>
+        <v>33.44281615295441</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.31781411601202</v>
+        <v>26.31781411601204</v>
       </c>
     </row>
     <row r="32">
@@ -3272,7 +3272,7 @@
         <v>131.9957148595316</v>
       </c>
       <c r="E35" t="n">
-        <v>159.2430433111105</v>
+        <v>159.2430433111104</v>
       </c>
       <c r="F35" t="n">
         <v>184.1887189805601</v>
@@ -3281,7 +3281,7 @@
         <v>192.143092478014</v>
       </c>
       <c r="H35" t="n">
-        <v>111.9503458108408</v>
+        <v>111.9503458108407</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>28.62054068460759</v>
+        <v>28.62054068460756</v>
       </c>
       <c r="V35" t="n">
         <v>105.0649317089836</v>
@@ -3332,7 +3332,7 @@
         <v>147.0437739173177</v>
       </c>
       <c r="Y35" t="n">
-        <v>163.5506118949023</v>
+        <v>163.5506118949022</v>
       </c>
     </row>
     <row r="36">
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.237429493717719</v>
+        <v>3.23742949371769</v>
       </c>
       <c r="V36" t="n">
-        <v>10.11326038827394</v>
+        <v>10.11326038827391</v>
       </c>
       <c r="W36" t="n">
-        <v>29.00765639976828</v>
+        <v>29.00765639976825</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.353018233698831</v>
+        <v>4.353018233698803</v>
       </c>
       <c r="U37" t="n">
-        <v>63.62014628342342</v>
+        <v>63.62014628342339</v>
       </c>
       <c r="V37" t="n">
-        <v>29.45031656267668</v>
+        <v>29.45031656267665</v>
       </c>
       <c r="W37" t="n">
-        <v>63.83567157543968</v>
+        <v>63.83567157543965</v>
       </c>
       <c r="X37" t="n">
-        <v>3.022328627885827</v>
+        <v>3.022328627885798</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>28.62054068460753</v>
+        <v>28.62054068460756</v>
       </c>
       <c r="V38" t="n">
-        <v>105.0649317089835</v>
+        <v>105.0649317089836</v>
       </c>
       <c r="W38" t="n">
-        <v>126.5536419562616</v>
+        <v>126.5536419562617</v>
       </c>
       <c r="X38" t="n">
         <v>147.0437739173177</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.237429493717662</v>
+        <v>3.23742949371769</v>
       </c>
       <c r="V39" t="n">
-        <v>10.11326038827389</v>
+        <v>10.11326038827391</v>
       </c>
       <c r="W39" t="n">
-        <v>29.00765639976822</v>
+        <v>29.00765639976825</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.353018233698775</v>
+        <v>4.353018233698803</v>
       </c>
       <c r="U40" t="n">
-        <v>63.62014628342336</v>
+        <v>63.62014628342339</v>
       </c>
       <c r="V40" t="n">
-        <v>29.45031656267662</v>
+        <v>29.45031656267665</v>
       </c>
       <c r="W40" t="n">
-        <v>63.83567157543962</v>
+        <v>63.83567157543965</v>
       </c>
       <c r="X40" t="n">
-        <v>3.02232862788577</v>
+        <v>3.022328627885798</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.0465149023292</v>
+        <v>160.0465149023293</v>
       </c>
       <c r="C41" t="n">
-        <v>142.5855650098562</v>
+        <v>142.5855650098563</v>
       </c>
       <c r="D41" t="n">
-        <v>131.9957148595316</v>
+        <v>131.9957148595317</v>
       </c>
       <c r="E41" t="n">
         <v>159.2430433111105</v>
       </c>
       <c r="F41" t="n">
-        <v>184.1887189805601</v>
+        <v>184.1887189805602</v>
       </c>
       <c r="G41" t="n">
-        <v>192.143092478014</v>
+        <v>192.1430924780141</v>
       </c>
       <c r="H41" t="n">
         <v>111.9503458108408</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>28.62054068460759</v>
+        <v>28.62054068460765</v>
       </c>
       <c r="V41" t="n">
         <v>105.0649317089836</v>
@@ -3803,7 +3803,7 @@
         <v>126.5536419562617</v>
       </c>
       <c r="X41" t="n">
-        <v>147.0437739173177</v>
+        <v>147.0437739173178</v>
       </c>
       <c r="Y41" t="n">
         <v>163.5506118949023</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.237429493717719</v>
+        <v>3.237429493717776</v>
       </c>
       <c r="V42" t="n">
-        <v>10.11326038827394</v>
+        <v>10.113260388274</v>
       </c>
       <c r="W42" t="n">
-        <v>29.00765639976828</v>
+        <v>29.00765639976834</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4.353018233698831</v>
+        <v>4.353018233698888</v>
       </c>
       <c r="U43" t="n">
-        <v>63.62014628342342</v>
+        <v>63.62014628342347</v>
       </c>
       <c r="V43" t="n">
-        <v>29.45031656267668</v>
+        <v>29.45031656267673</v>
       </c>
       <c r="W43" t="n">
-        <v>63.83567157543968</v>
+        <v>63.83567157543973</v>
       </c>
       <c r="X43" t="n">
-        <v>3.022328627885827</v>
+        <v>3.022328627885884</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.0465149023292</v>
+        <v>160.0465149023293</v>
       </c>
       <c r="C44" t="n">
-        <v>142.5855650098562</v>
+        <v>142.5855650098563</v>
       </c>
       <c r="D44" t="n">
-        <v>131.9957148595316</v>
+        <v>131.9957148595317</v>
       </c>
       <c r="E44" t="n">
         <v>159.2430433111105</v>
       </c>
       <c r="F44" t="n">
-        <v>184.1887189805601</v>
+        <v>184.1887189805602</v>
       </c>
       <c r="G44" t="n">
-        <v>192.143092478014</v>
+        <v>192.1430924780141</v>
       </c>
       <c r="H44" t="n">
         <v>111.9503458108408</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>28.62054068460759</v>
+        <v>28.62054068460765</v>
       </c>
       <c r="V44" t="n">
         <v>105.0649317089836</v>
@@ -4040,7 +4040,7 @@
         <v>126.5536419562617</v>
       </c>
       <c r="X44" t="n">
-        <v>147.0437739173177</v>
+        <v>147.0437739173178</v>
       </c>
       <c r="Y44" t="n">
         <v>163.5506118949023</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3.237429493717719</v>
+        <v>3.237429493717776</v>
       </c>
       <c r="V45" t="n">
-        <v>10.11326038827394</v>
+        <v>10.113260388274</v>
       </c>
       <c r="W45" t="n">
-        <v>29.00765639976828</v>
+        <v>29.00765639976834</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>4.353018233698831</v>
+        <v>4.353018233698888</v>
       </c>
       <c r="U46" t="n">
-        <v>63.62014628342342</v>
+        <v>63.62014628342347</v>
       </c>
       <c r="V46" t="n">
-        <v>29.45031656267668</v>
+        <v>29.45031656267673</v>
       </c>
       <c r="W46" t="n">
-        <v>63.83567157543968</v>
+        <v>63.83567157543973</v>
       </c>
       <c r="X46" t="n">
-        <v>3.022328627885827</v>
+        <v>3.022328627885884</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>348.9614885435906</v>
+        <v>203.9575375024572</v>
       </c>
       <c r="C11" t="n">
-        <v>348.9614885435906</v>
+        <v>203.9575375024572</v>
       </c>
       <c r="D11" t="n">
-        <v>320.4214538150848</v>
+        <v>203.9575375024572</v>
       </c>
       <c r="E11" t="n">
-        <v>216.3614857015862</v>
+        <v>112.3015175880877</v>
       </c>
       <c r="F11" t="n">
-        <v>112.3015175880876</v>
+        <v>112.3015175880877</v>
       </c>
       <c r="G11" t="n">
-        <v>112.3015175880876</v>
+        <v>112.3015175880877</v>
       </c>
       <c r="H11" t="n">
-        <v>8.241549474589085</v>
+        <v>8.241549474589087</v>
       </c>
       <c r="I11" t="n">
-        <v>20.77378125016693</v>
+        <v>20.77378125016694</v>
       </c>
       <c r="J11" t="n">
-        <v>48.6305338314359</v>
+        <v>84.10128743038265</v>
       </c>
       <c r="K11" t="n">
-        <v>150.6197085794758</v>
+        <v>128.5685868530679</v>
       </c>
       <c r="L11" t="n">
-        <v>193.8773730502311</v>
+        <v>128.5685868530679</v>
       </c>
       <c r="M11" t="n">
-        <v>267.7333846096747</v>
+        <v>128.5685868530679</v>
       </c>
       <c r="N11" t="n">
-        <v>267.7333846096747</v>
+        <v>187.7602179809426</v>
       </c>
       <c r="O11" t="n">
-        <v>321.5970706825971</v>
+        <v>289.7493927289825</v>
       </c>
       <c r="P11" t="n">
-        <v>321.5970706825971</v>
+        <v>289.7493927289825</v>
       </c>
       <c r="Q11" t="n">
-        <v>321.5970706825971</v>
+        <v>386.6563263568498</v>
       </c>
       <c r="R11" t="n">
-        <v>405.4756168140137</v>
+        <v>405.4756168140138</v>
       </c>
       <c r="S11" t="n">
-        <v>412.0774737294543</v>
+        <v>412.0774737294544</v>
       </c>
       <c r="T11" t="n">
-        <v>395.8122039318179</v>
+        <v>412.0774737294544</v>
       </c>
       <c r="U11" t="n">
-        <v>348.9614885435906</v>
+        <v>412.0774737294544</v>
       </c>
       <c r="V11" t="n">
-        <v>348.9614885435906</v>
+        <v>412.0774737294544</v>
       </c>
       <c r="W11" t="n">
-        <v>348.9614885435906</v>
+        <v>412.0774737294544</v>
       </c>
       <c r="X11" t="n">
-        <v>348.9614885435906</v>
+        <v>412.0774737294544</v>
       </c>
       <c r="Y11" t="n">
-        <v>348.9614885435906</v>
+        <v>308.0175056159558</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.241549474589085</v>
+        <v>8.241549474589087</v>
       </c>
       <c r="C12" t="n">
-        <v>8.241549474589085</v>
+        <v>8.241549474589087</v>
       </c>
       <c r="D12" t="n">
-        <v>8.241549474589085</v>
+        <v>8.241549474589087</v>
       </c>
       <c r="E12" t="n">
-        <v>8.241549474589085</v>
+        <v>8.241549474589087</v>
       </c>
       <c r="F12" t="n">
-        <v>8.241549474589085</v>
+        <v>8.241549474589087</v>
       </c>
       <c r="G12" t="n">
-        <v>8.241549474589085</v>
+        <v>8.241549474589087</v>
       </c>
       <c r="H12" t="n">
-        <v>8.241549474589085</v>
+        <v>8.241549474589087</v>
       </c>
       <c r="I12" t="n">
-        <v>8.241549474589085</v>
+        <v>8.241549474589087</v>
       </c>
       <c r="J12" t="n">
-        <v>8.241549474589085</v>
+        <v>8.241549474589087</v>
       </c>
       <c r="K12" t="n">
-        <v>8.241549474589085</v>
+        <v>8.241549474589087</v>
       </c>
       <c r="L12" t="n">
-        <v>8.241549474589085</v>
+        <v>106.4715610795652</v>
       </c>
       <c r="M12" t="n">
-        <v>8.241549474589085</v>
+        <v>106.4715610795652</v>
       </c>
       <c r="N12" t="n">
-        <v>8.241549474589085</v>
+        <v>106.4715610795652</v>
       </c>
       <c r="O12" t="n">
-        <v>63.19266913019391</v>
+        <v>106.4715610795652</v>
       </c>
       <c r="P12" t="n">
-        <v>63.19266913019391</v>
+        <v>106.4715610795652</v>
       </c>
       <c r="Q12" t="n">
-        <v>63.19266913019391</v>
+        <v>106.4715610795652</v>
       </c>
       <c r="R12" t="n">
-        <v>63.19266913019391</v>
+        <v>106.4715610795652</v>
       </c>
       <c r="S12" t="n">
-        <v>100.7498170115192</v>
+        <v>106.4715610795652</v>
       </c>
       <c r="T12" t="n">
         <v>106.4715610795652</v>
       </c>
       <c r="U12" t="n">
-        <v>85.26035194476198</v>
+        <v>85.26035194476199</v>
       </c>
       <c r="V12" t="n">
-        <v>57.10385907808381</v>
+        <v>57.10385907808382</v>
       </c>
       <c r="W12" t="n">
-        <v>9.862117714946724</v>
+        <v>9.862117714946725</v>
       </c>
       <c r="X12" t="n">
-        <v>9.006232874478453</v>
+        <v>9.006232874478455</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.241549474589085</v>
+        <v>8.241549474589087</v>
       </c>
     </row>
     <row r="13">
@@ -5173,52 +5173,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.19202113939888</v>
+        <v>8.241549474589087</v>
       </c>
       <c r="C13" t="n">
-        <v>31.19202113939888</v>
+        <v>8.241549474589087</v>
       </c>
       <c r="D13" t="n">
-        <v>31.19202113939888</v>
+        <v>8.241549474589087</v>
       </c>
       <c r="E13" t="n">
-        <v>31.19202113939888</v>
+        <v>66.14832907378536</v>
       </c>
       <c r="F13" t="n">
-        <v>31.19202113939888</v>
+        <v>66.14832907378536</v>
       </c>
       <c r="G13" t="n">
-        <v>31.19202113939888</v>
+        <v>66.14832907378536</v>
       </c>
       <c r="H13" t="n">
-        <v>31.19202113939888</v>
+        <v>66.14832907378536</v>
       </c>
       <c r="I13" t="n">
-        <v>86.48011975078305</v>
+        <v>66.14832907378536</v>
       </c>
       <c r="J13" t="n">
-        <v>86.48011975078305</v>
+        <v>66.14832907378536</v>
       </c>
       <c r="K13" t="n">
-        <v>186.0021917188271</v>
+        <v>66.14832907378536</v>
       </c>
       <c r="L13" t="n">
-        <v>186.0021917188271</v>
+        <v>166.6725698123033</v>
       </c>
       <c r="M13" t="n">
-        <v>186.0021917188271</v>
+        <v>201.3454023908716</v>
       </c>
       <c r="N13" t="n">
-        <v>186.0021917188271</v>
+        <v>201.3454023908716</v>
       </c>
       <c r="O13" t="n">
-        <v>186.0021917188271</v>
+        <v>201.3454023908716</v>
       </c>
       <c r="P13" t="n">
-        <v>186.0021917188271</v>
+        <v>293.2390346673595</v>
       </c>
       <c r="Q13" t="n">
-        <v>256.452098919811</v>
+        <v>293.2390346673595</v>
       </c>
       <c r="R13" t="n">
         <v>293.2390346673595</v>
@@ -5242,7 +5242,7 @@
         <v>22.03851325305465</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.241549474589085</v>
+        <v>8.241549474589087</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>216.3614857015862</v>
+        <v>140.8415523165936</v>
       </c>
       <c r="C14" t="n">
-        <v>216.3614857015862</v>
+        <v>140.8415523165936</v>
       </c>
       <c r="D14" t="n">
-        <v>216.3614857015862</v>
+        <v>140.8415523165936</v>
       </c>
       <c r="E14" t="n">
-        <v>216.3614857015862</v>
+        <v>112.3015175880876</v>
       </c>
       <c r="F14" t="n">
-        <v>216.3614857015862</v>
+        <v>8.241549474589085</v>
       </c>
       <c r="G14" t="n">
-        <v>112.3015175880876</v>
+        <v>8.241549474589085</v>
       </c>
       <c r="H14" t="n">
         <v>8.241549474589085</v>
       </c>
       <c r="I14" t="n">
-        <v>20.7737812501669</v>
+        <v>20.77378125016693</v>
       </c>
       <c r="J14" t="n">
-        <v>20.7737812501669</v>
+        <v>84.10128743038265</v>
       </c>
       <c r="K14" t="n">
-        <v>20.7737812501669</v>
+        <v>128.5685868530679</v>
       </c>
       <c r="L14" t="n">
-        <v>64.03144572092214</v>
+        <v>230.5577616011078</v>
       </c>
       <c r="M14" t="n">
-        <v>120.9706843558387</v>
+        <v>230.5577616011078</v>
       </c>
       <c r="N14" t="n">
-        <v>219.6078959345573</v>
+        <v>289.7493927289825</v>
       </c>
       <c r="O14" t="n">
-        <v>219.6078959345573</v>
+        <v>289.7493927289825</v>
       </c>
       <c r="P14" t="n">
-        <v>321.5970706825972</v>
+        <v>330.9458884480352</v>
       </c>
       <c r="Q14" t="n">
-        <v>321.5970706825972</v>
+        <v>330.9458884480352</v>
       </c>
       <c r="R14" t="n">
         <v>405.4756168140137</v>
@@ -5306,22 +5306,22 @@
         <v>412.0774737294543</v>
       </c>
       <c r="T14" t="n">
-        <v>412.0774737294543</v>
+        <v>395.8122039318179</v>
       </c>
       <c r="U14" t="n">
-        <v>365.2267583412269</v>
+        <v>348.9614885435906</v>
       </c>
       <c r="V14" t="n">
-        <v>365.2267583412269</v>
+        <v>348.9614885435906</v>
       </c>
       <c r="W14" t="n">
-        <v>365.2267583412269</v>
+        <v>348.9614885435906</v>
       </c>
       <c r="X14" t="n">
-        <v>261.1667902277284</v>
+        <v>348.9614885435906</v>
       </c>
       <c r="Y14" t="n">
-        <v>261.1667902277284</v>
+        <v>244.9015204300921</v>
       </c>
     </row>
     <row r="15">
@@ -5334,70 +5334,70 @@
         <v>8.241549474589085</v>
       </c>
       <c r="C15" t="n">
-        <v>12.29198369479269</v>
+        <v>8.241549474589085</v>
       </c>
       <c r="D15" t="n">
-        <v>12.29198369479269</v>
+        <v>8.241549474589085</v>
       </c>
       <c r="E15" t="n">
-        <v>12.29198369479269</v>
+        <v>8.241549474589085</v>
       </c>
       <c r="F15" t="n">
-        <v>12.29198369479269</v>
+        <v>8.241549474589085</v>
       </c>
       <c r="G15" t="n">
-        <v>12.29198369479269</v>
+        <v>8.241549474589085</v>
       </c>
       <c r="H15" t="n">
-        <v>106.4715610795653</v>
+        <v>32.28442455726926</v>
       </c>
       <c r="I15" t="n">
-        <v>106.4715610795653</v>
+        <v>32.28442455726926</v>
       </c>
       <c r="J15" t="n">
-        <v>106.4715610795653</v>
+        <v>32.28442455726926</v>
       </c>
       <c r="K15" t="n">
-        <v>106.4715610795653</v>
+        <v>32.28442455726926</v>
       </c>
       <c r="L15" t="n">
-        <v>106.4715610795653</v>
+        <v>32.28442455726926</v>
       </c>
       <c r="M15" t="n">
-        <v>106.4715610795653</v>
+        <v>32.28442455726926</v>
       </c>
       <c r="N15" t="n">
-        <v>106.4715610795653</v>
+        <v>32.28442455726926</v>
       </c>
       <c r="O15" t="n">
-        <v>106.4715610795653</v>
+        <v>32.28442455726926</v>
       </c>
       <c r="P15" t="n">
-        <v>106.4715610795653</v>
+        <v>32.28442455726926</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.4715610795653</v>
+        <v>32.28442455726926</v>
       </c>
       <c r="R15" t="n">
-        <v>106.4715610795653</v>
+        <v>106.4715610795652</v>
       </c>
       <c r="S15" t="n">
-        <v>106.4715610795653</v>
+        <v>106.4715610795652</v>
       </c>
       <c r="T15" t="n">
-        <v>106.4715610795653</v>
+        <v>106.4715610795652</v>
       </c>
       <c r="U15" t="n">
-        <v>85.26035194476209</v>
+        <v>85.26035194476198</v>
       </c>
       <c r="V15" t="n">
-        <v>57.1038590780839</v>
+        <v>57.10385907808381</v>
       </c>
       <c r="W15" t="n">
-        <v>9.86211771494678</v>
+        <v>9.862117714946724</v>
       </c>
       <c r="X15" t="n">
-        <v>9.006232874478481</v>
+        <v>9.006232874478453</v>
       </c>
       <c r="Y15" t="n">
         <v>8.241549474589085</v>
@@ -5416,67 +5416,67 @@
         <v>8.241549474589085</v>
       </c>
       <c r="D16" t="n">
-        <v>8.241549474589085</v>
+        <v>63.9886338058586</v>
       </c>
       <c r="E16" t="n">
-        <v>8.241549474589085</v>
+        <v>78.51713024085954</v>
       </c>
       <c r="F16" t="n">
-        <v>8.241549474589085</v>
+        <v>137.4266953174574</v>
       </c>
       <c r="G16" t="n">
-        <v>8.241549474589085</v>
+        <v>137.4266953174574</v>
       </c>
       <c r="H16" t="n">
-        <v>8.241549474589085</v>
+        <v>137.4266953174574</v>
       </c>
       <c r="I16" t="n">
-        <v>8.241549474589085</v>
+        <v>192.7147939288415</v>
       </c>
       <c r="J16" t="n">
-        <v>8.241549474589085</v>
+        <v>192.7147939288415</v>
       </c>
       <c r="K16" t="n">
-        <v>107.7636214426331</v>
+        <v>192.7147939288415</v>
       </c>
       <c r="L16" t="n">
-        <v>208.287862181151</v>
+        <v>293.2390346673595</v>
       </c>
       <c r="M16" t="n">
-        <v>208.287862181151</v>
+        <v>293.2390346673595</v>
       </c>
       <c r="N16" t="n">
-        <v>293.2390346673597</v>
+        <v>293.2390346673595</v>
       </c>
       <c r="O16" t="n">
-        <v>293.2390346673597</v>
+        <v>293.2390346673595</v>
       </c>
       <c r="P16" t="n">
-        <v>293.2390346673597</v>
+        <v>293.2390346673595</v>
       </c>
       <c r="Q16" t="n">
-        <v>293.2390346673597</v>
+        <v>293.2390346673595</v>
       </c>
       <c r="R16" t="n">
-        <v>293.2390346673597</v>
+        <v>293.2390346673595</v>
       </c>
       <c r="S16" t="n">
-        <v>277.6847951033697</v>
+        <v>277.6847951033694</v>
       </c>
       <c r="T16" t="n">
-        <v>255.3467286554542</v>
+        <v>255.346728655454</v>
       </c>
       <c r="U16" t="n">
-        <v>173.142876298726</v>
+        <v>173.1428762987259</v>
       </c>
       <c r="V16" t="n">
-        <v>125.4540034579036</v>
+        <v>125.4540034579035</v>
       </c>
       <c r="W16" t="n">
-        <v>43.03244878600749</v>
+        <v>43.03244878600744</v>
       </c>
       <c r="X16" t="n">
-        <v>22.03851325305467</v>
+        <v>22.03851325305465</v>
       </c>
       <c r="Y16" t="n">
         <v>8.241549474589085</v>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>261.1752924896081</v>
+        <v>261.1752924896079</v>
       </c>
       <c r="C17" t="n">
-        <v>230.2306266320167</v>
+        <v>230.2306266320165</v>
       </c>
       <c r="D17" t="n">
-        <v>209.9827791080865</v>
+        <v>209.9827791080863</v>
       </c>
       <c r="E17" t="n">
-        <v>162.2123775926625</v>
+        <v>162.2123775926623</v>
       </c>
       <c r="F17" t="n">
         <v>89.24432388587519</v>
@@ -5510,7 +5510,7 @@
         <v>8.241549474589085</v>
       </c>
       <c r="I17" t="n">
-        <v>110.230724222629</v>
+        <v>8.241549474589085</v>
       </c>
       <c r="J17" t="n">
         <v>110.230724222629</v>
@@ -5519,34 +5519,34 @@
         <v>110.230724222629</v>
       </c>
       <c r="L17" t="n">
-        <v>110.230724222629</v>
+        <v>118.7860571975649</v>
       </c>
       <c r="M17" t="n">
-        <v>110.230724222629</v>
+        <v>118.7860571975649</v>
       </c>
       <c r="N17" t="n">
-        <v>110.230724222629</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="O17" t="n">
-        <v>110.230724222629</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="P17" t="n">
-        <v>110.230724222629</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.219898970669</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="R17" t="n">
-        <v>212.219898970669</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5917919064435</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="T17" t="n">
-        <v>329.5809666544834</v>
+        <v>322.7644066936448</v>
       </c>
       <c r="U17" t="n">
-        <v>412.0774737294543</v>
+        <v>405.2609137686156</v>
       </c>
       <c r="V17" t="n">
         <v>412.0774737294543</v>
@@ -5555,10 +5555,10 @@
         <v>397.3266695421604</v>
       </c>
       <c r="X17" t="n">
-        <v>361.8787623639009</v>
+        <v>361.8787623639008</v>
       </c>
       <c r="Y17" t="n">
-        <v>309.7572814709096</v>
+        <v>309.7572814709094</v>
       </c>
     </row>
     <row r="18">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>261.1752924896078</v>
+        <v>261.1752924896074</v>
       </c>
       <c r="C20" t="n">
-        <v>230.2306266320164</v>
+        <v>230.230626632016</v>
       </c>
       <c r="D20" t="n">
-        <v>209.9827791080862</v>
+        <v>209.982779108086</v>
       </c>
       <c r="E20" t="n">
-        <v>162.2123775926626</v>
+        <v>162.2123775926621</v>
       </c>
       <c r="F20" t="n">
         <v>89.24432388587522</v>
@@ -5750,52 +5750,52 @@
         <v>110.230724222629</v>
       </c>
       <c r="J20" t="n">
-        <v>110.230724222629</v>
+        <v>212.219898970669</v>
       </c>
       <c r="K20" t="n">
-        <v>212.219898970669</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="L20" t="n">
-        <v>212.219898970669</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="M20" t="n">
-        <v>212.219898970669</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="N20" t="n">
-        <v>212.219898970669</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="O20" t="n">
-        <v>212.219898970669</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="P20" t="n">
-        <v>314.2090737187089</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="Q20" t="n">
-        <v>314.2090737187089</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="R20" t="n">
-        <v>314.2090737187089</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="S20" t="n">
-        <v>314.2090737187089</v>
+        <v>322.7644066936448</v>
       </c>
       <c r="T20" t="n">
-        <v>329.5809666544834</v>
+        <v>322.7644066936448</v>
       </c>
       <c r="U20" t="n">
-        <v>412.0774737294543</v>
+        <v>405.2609137686156</v>
       </c>
       <c r="V20" t="n">
         <v>412.0774737294543</v>
       </c>
       <c r="W20" t="n">
-        <v>397.3266695421604</v>
+        <v>397.3266695421597</v>
       </c>
       <c r="X20" t="n">
-        <v>361.8787623639008</v>
+        <v>361.8787623639003</v>
       </c>
       <c r="Y20" t="n">
-        <v>309.7572814709093</v>
+        <v>309.7572814709089</v>
       </c>
     </row>
     <row r="21">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>261.1752924896079</v>
+        <v>261.175292489608</v>
       </c>
       <c r="C23" t="n">
-        <v>230.2306266320165</v>
+        <v>230.2306266320166</v>
       </c>
       <c r="D23" t="n">
         <v>209.9827791080864</v>
@@ -5975,61 +5975,61 @@
         <v>162.2123775926624</v>
       </c>
       <c r="F23" t="n">
-        <v>89.24432388587519</v>
+        <v>89.24432388587522</v>
       </c>
       <c r="G23" t="n">
-        <v>8.241549474589085</v>
+        <v>8.241549474589121</v>
       </c>
       <c r="H23" t="n">
-        <v>8.241549474589085</v>
+        <v>8.241549474589121</v>
       </c>
       <c r="I23" t="n">
-        <v>8.241549474589085</v>
+        <v>110.230724222629</v>
       </c>
       <c r="J23" t="n">
-        <v>8.241549474589085</v>
+        <v>118.7860571975649</v>
       </c>
       <c r="K23" t="n">
-        <v>8.241549474589085</v>
+        <v>118.7860571975649</v>
       </c>
       <c r="L23" t="n">
-        <v>110.230724222629</v>
+        <v>118.7860571975649</v>
       </c>
       <c r="M23" t="n">
-        <v>110.230724222629</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="N23" t="n">
-        <v>110.230724222629</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="O23" t="n">
-        <v>110.230724222629</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="P23" t="n">
-        <v>110.230724222629</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="Q23" t="n">
-        <v>125.6026171584035</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="R23" t="n">
-        <v>227.5917919064434</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5917919064434</v>
+        <v>220.7752319456048</v>
       </c>
       <c r="T23" t="n">
-        <v>329.5809666544833</v>
+        <v>322.7644066936448</v>
       </c>
       <c r="U23" t="n">
-        <v>412.0774737294542</v>
+        <v>405.2609137686156</v>
       </c>
       <c r="V23" t="n">
-        <v>412.0774737294542</v>
+        <v>412.0774737294543</v>
       </c>
       <c r="W23" t="n">
-        <v>397.3266695421603</v>
+        <v>397.3266695421604</v>
       </c>
       <c r="X23" t="n">
-        <v>361.8787623639008</v>
+        <v>361.8787623639009</v>
       </c>
       <c r="Y23" t="n">
         <v>309.7572814709094</v>
@@ -6203,52 +6203,52 @@
         <v>1158.103997834313</v>
       </c>
       <c r="C26" t="n">
-        <v>983.3504094151967</v>
+        <v>983.3504094151974</v>
       </c>
       <c r="D26" t="n">
-        <v>819.2936393297421</v>
+        <v>819.2936393297426</v>
       </c>
       <c r="E26" t="n">
-        <v>627.7143152527938</v>
+        <v>627.7143152527941</v>
       </c>
       <c r="F26" t="n">
-        <v>410.937338984482</v>
+        <v>410.9373389844823</v>
       </c>
       <c r="G26" t="n">
         <v>186.1256420116716</v>
       </c>
       <c r="H26" t="n">
-        <v>42.31671945014701</v>
+        <v>42.316719450147</v>
       </c>
       <c r="I26" t="n">
-        <v>42.31671945014701</v>
+        <v>42.316719450147</v>
       </c>
       <c r="J26" t="n">
-        <v>70.17347203141598</v>
+        <v>260.5176428751379</v>
       </c>
       <c r="K26" t="n">
-        <v>423.0124981239765</v>
+        <v>292.4527105222454</v>
       </c>
       <c r="L26" t="n">
-        <v>568.3397966074376</v>
+        <v>680.8073500542089</v>
       </c>
       <c r="M26" t="n">
-        <v>568.3397966074376</v>
+        <v>758.6839674511587</v>
       </c>
       <c r="N26" t="n">
-        <v>1047.972651127599</v>
+        <v>1238.31682197132</v>
       </c>
       <c r="O26" t="n">
         <v>1466.296284875061</v>
       </c>
       <c r="P26" t="n">
-        <v>1813.541269908304</v>
+        <v>1813.541269908303</v>
       </c>
       <c r="Q26" t="n">
-        <v>2044.489658151512</v>
+        <v>2044.489658151511</v>
       </c>
       <c r="R26" t="n">
-        <v>2115.835972507351</v>
+        <v>2115.83597250735</v>
       </c>
       <c r="S26" t="n">
         <v>2109.785187015934</v>
@@ -6279,61 +6279,61 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>42.31671945014701</v>
+        <v>42.316719450147</v>
       </c>
       <c r="C27" t="n">
-        <v>53.05076122006106</v>
+        <v>42.316719450147</v>
       </c>
       <c r="D27" t="n">
-        <v>53.05076122006106</v>
+        <v>42.316719450147</v>
       </c>
       <c r="E27" t="n">
-        <v>53.05076122006106</v>
+        <v>42.316719450147</v>
       </c>
       <c r="F27" t="n">
-        <v>53.05076122006106</v>
+        <v>42.316719450147</v>
       </c>
       <c r="G27" t="n">
-        <v>53.05076122006106</v>
+        <v>42.316719450147</v>
       </c>
       <c r="H27" t="n">
-        <v>53.05076122006106</v>
+        <v>42.316719450147</v>
       </c>
       <c r="I27" t="n">
-        <v>163.5061060462837</v>
+        <v>42.316719450147</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4040173628243</v>
+        <v>42.316719450147</v>
       </c>
       <c r="K27" t="n">
-        <v>186.4040173628243</v>
+        <v>42.316719450147</v>
       </c>
       <c r="L27" t="n">
-        <v>186.4040173628243</v>
+        <v>42.316719450147</v>
       </c>
       <c r="M27" t="n">
-        <v>186.4040173628243</v>
+        <v>42.316719450147</v>
       </c>
       <c r="N27" t="n">
-        <v>186.4040173628243</v>
+        <v>42.316719450147</v>
       </c>
       <c r="O27" t="n">
-        <v>186.4040173628243</v>
+        <v>42.316719450147</v>
       </c>
       <c r="P27" t="n">
-        <v>186.4040173628243</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.4040173628243</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="R27" t="n">
-        <v>186.4040173628243</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="S27" t="n">
         <v>211.4289334685717</v>
       </c>
       <c r="T27" t="n">
-        <v>204.4801652739673</v>
+        <v>204.4801652739672</v>
       </c>
       <c r="U27" t="n">
         <v>170.4822692953952</v>
@@ -6342,13 +6342,13 @@
         <v>129.5390895849482</v>
       </c>
       <c r="W27" t="n">
-        <v>69.51066137804231</v>
+        <v>69.5106613780423</v>
       </c>
       <c r="X27" t="n">
-        <v>55.86808969380521</v>
+        <v>55.8680896938052</v>
       </c>
       <c r="Y27" t="n">
-        <v>42.31671945014701</v>
+        <v>42.316719450147</v>
       </c>
     </row>
     <row r="28">
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42.31671945014701</v>
+        <v>42.316719450147</v>
       </c>
       <c r="C28" t="n">
-        <v>42.31671945014701</v>
+        <v>42.316719450147</v>
       </c>
       <c r="D28" t="n">
-        <v>65.02723653769137</v>
+        <v>42.316719450147</v>
       </c>
       <c r="E28" t="n">
-        <v>65.02723653769137</v>
+        <v>42.316719450147</v>
       </c>
       <c r="F28" t="n">
-        <v>111.4045698387114</v>
+        <v>42.316719450147</v>
       </c>
       <c r="G28" t="n">
-        <v>111.4045698387114</v>
+        <v>66.55956779027278</v>
       </c>
       <c r="H28" t="n">
-        <v>111.4045698387114</v>
+        <v>66.55956779027278</v>
       </c>
       <c r="I28" t="n">
-        <v>154.1604366745177</v>
+        <v>66.55956779027278</v>
       </c>
       <c r="J28" t="n">
-        <v>154.1604366745177</v>
+        <v>81.19591014810851</v>
       </c>
       <c r="K28" t="n">
-        <v>156.482434704468</v>
+        <v>81.19591014810851</v>
       </c>
       <c r="L28" t="n">
-        <v>214.9802273498251</v>
+        <v>81.19591014810851</v>
       </c>
       <c r="M28" t="n">
-        <v>287.0470707931111</v>
+        <v>81.19591014810851</v>
       </c>
       <c r="N28" t="n">
-        <v>362.8349421984839</v>
+        <v>81.19591014810851</v>
       </c>
       <c r="O28" t="n">
-        <v>416.8210125492992</v>
+        <v>81.19591014810851</v>
       </c>
       <c r="P28" t="n">
-        <v>416.8210125492992</v>
+        <v>294.2138083299192</v>
       </c>
       <c r="Q28" t="n">
         <v>416.8210125492992</v>
@@ -6424,10 +6424,10 @@
         <v>102.680992449103</v>
       </c>
       <c r="X28" t="n">
-        <v>68.90037007238141</v>
+        <v>68.90037007238139</v>
       </c>
       <c r="Y28" t="n">
-        <v>42.31671945014701</v>
+        <v>42.316719450147</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1158.103997834314</v>
+        <v>1158.103997834313</v>
       </c>
       <c r="C29" t="n">
-        <v>983.3504094151975</v>
+        <v>983.350409415197</v>
       </c>
       <c r="D29" t="n">
-        <v>819.2936393297429</v>
+        <v>819.2936393297423</v>
       </c>
       <c r="E29" t="n">
-        <v>627.7143152527947</v>
+        <v>627.714315252794</v>
       </c>
       <c r="F29" t="n">
-        <v>410.9373389844827</v>
+        <v>410.9373389844823</v>
       </c>
       <c r="G29" t="n">
         <v>186.1256420116716</v>
@@ -6461,25 +6461,25 @@
         <v>42.31671945014701</v>
       </c>
       <c r="J29" t="n">
-        <v>70.17347203141598</v>
+        <v>260.5176428751379</v>
       </c>
       <c r="K29" t="n">
-        <v>232.6683272802545</v>
+        <v>423.0124981239766</v>
       </c>
       <c r="L29" t="n">
-        <v>486.534191536656</v>
+        <v>676.878362380378</v>
       </c>
       <c r="M29" t="n">
-        <v>633.39905228169</v>
+        <v>823.743223125412</v>
       </c>
       <c r="N29" t="n">
-        <v>1113.031906801851</v>
+        <v>1303.376077645573</v>
       </c>
       <c r="O29" t="n">
-        <v>1531.355540549314</v>
+        <v>1721.699711393036</v>
       </c>
       <c r="P29" t="n">
-        <v>1878.600525582556</v>
+        <v>2068.944696426278</v>
       </c>
       <c r="Q29" t="n">
         <v>2109.548913825764</v>
@@ -6500,13 +6500,13 @@
         <v>1884.241869320258</v>
       </c>
       <c r="W29" t="n">
-        <v>1725.68214257144</v>
+        <v>1725.682142571439</v>
       </c>
       <c r="X29" t="n">
-        <v>1546.425312831656</v>
+        <v>1546.425312831655</v>
       </c>
       <c r="Y29" t="n">
-        <v>1350.49490937714</v>
+        <v>1350.494909377139</v>
       </c>
     </row>
     <row r="30">
@@ -6519,70 +6519,70 @@
         <v>42.31671945014701</v>
       </c>
       <c r="C30" t="n">
-        <v>61.67947629543637</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="D30" t="n">
-        <v>106.053032230166</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="E30" t="n">
-        <v>106.053032230166</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F30" t="n">
-        <v>106.053032230166</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G30" t="n">
-        <v>160.6773065135491</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="H30" t="n">
-        <v>186.4040173628241</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I30" t="n">
-        <v>186.4040173628241</v>
+        <v>117.14832658687</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4040173628241</v>
+        <v>117.14832658687</v>
       </c>
       <c r="K30" t="n">
-        <v>186.4040173628241</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="L30" t="n">
-        <v>186.4040173628241</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="M30" t="n">
-        <v>186.4040173628241</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="N30" t="n">
-        <v>186.4040173628241</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="O30" t="n">
-        <v>186.4040173628241</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="P30" t="n">
-        <v>186.4040173628241</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.4040173628241</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="R30" t="n">
-        <v>186.4040173628241</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="S30" t="n">
-        <v>211.4289334685716</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="T30" t="n">
-        <v>204.4801652739671</v>
+        <v>204.4801652739673</v>
       </c>
       <c r="U30" t="n">
-        <v>170.4822692953951</v>
+        <v>170.4822692953952</v>
       </c>
       <c r="V30" t="n">
         <v>129.5390895849482</v>
       </c>
       <c r="W30" t="n">
-        <v>69.51066137804226</v>
+        <v>69.51066137804231</v>
       </c>
       <c r="X30" t="n">
-        <v>55.86808969380518</v>
+        <v>55.86808969380521</v>
       </c>
       <c r="Y30" t="n">
         <v>42.31671945014701</v>
@@ -6604,55 +6604,55 @@
         <v>42.31671945014701</v>
       </c>
       <c r="E31" t="n">
-        <v>87.69126727376548</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F31" t="n">
-        <v>134.0686005747855</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G31" t="n">
-        <v>158.3114489149113</v>
+        <v>66.55956779027278</v>
       </c>
       <c r="H31" t="n">
-        <v>189.9155610301763</v>
+        <v>66.55956779027278</v>
       </c>
       <c r="I31" t="n">
-        <v>232.6714278659827</v>
+        <v>66.55956779027278</v>
       </c>
       <c r="J31" t="n">
-        <v>232.6714278659827</v>
+        <v>66.55956779027278</v>
       </c>
       <c r="K31" t="n">
-        <v>232.6714278659827</v>
+        <v>66.55956779027278</v>
       </c>
       <c r="L31" t="n">
-        <v>232.6714278659827</v>
+        <v>66.55956779027278</v>
       </c>
       <c r="M31" t="n">
-        <v>232.6714278659827</v>
+        <v>328.9705820772807</v>
       </c>
       <c r="N31" t="n">
-        <v>294.213808329919</v>
+        <v>328.9705820772807</v>
       </c>
       <c r="O31" t="n">
-        <v>294.213808329919</v>
+        <v>392.5663085773285</v>
       </c>
       <c r="P31" t="n">
-        <v>294.213808329919</v>
+        <v>392.5663085773285</v>
       </c>
       <c r="Q31" t="n">
-        <v>416.821012549299</v>
+        <v>392.5663085773285</v>
       </c>
       <c r="R31" t="n">
-        <v>416.821012549299</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="S31" t="n">
-        <v>388.4800861415401</v>
+        <v>388.4800861415404</v>
       </c>
       <c r="T31" t="n">
-        <v>353.3553328498559</v>
+        <v>353.3553328498561</v>
       </c>
       <c r="U31" t="n">
-        <v>258.364793649359</v>
+        <v>258.3647936493591</v>
       </c>
       <c r="V31" t="n">
         <v>197.8892339647679</v>
@@ -6661,7 +6661,7 @@
         <v>102.680992449103</v>
       </c>
       <c r="X31" t="n">
-        <v>68.90037007238138</v>
+        <v>68.90037007238141</v>
       </c>
       <c r="Y31" t="n">
         <v>42.31671945014701</v>
@@ -6677,19 +6677,19 @@
         <v>1158.103997834312</v>
       </c>
       <c r="C32" t="n">
-        <v>983.3504094151962</v>
+        <v>983.3504094151965</v>
       </c>
       <c r="D32" t="n">
-        <v>819.2936393297414</v>
+        <v>819.2936393297417</v>
       </c>
       <c r="E32" t="n">
-        <v>627.7143152527929</v>
+        <v>627.7143152527932</v>
       </c>
       <c r="F32" t="n">
-        <v>410.9373389844818</v>
+        <v>410.9373389844814</v>
       </c>
       <c r="G32" t="n">
-        <v>186.1256420116711</v>
+        <v>186.1256420116716</v>
       </c>
       <c r="H32" t="n">
         <v>42.31671945014701</v>
@@ -6698,28 +6698,28 @@
         <v>42.31671945014701</v>
       </c>
       <c r="J32" t="n">
-        <v>70.17347203141598</v>
+        <v>260.5176428751379</v>
       </c>
       <c r="K32" t="n">
-        <v>70.17347203141598</v>
+        <v>292.4527105222454</v>
       </c>
       <c r="L32" t="n">
-        <v>514.3835071315394</v>
+        <v>566.7620052487528</v>
       </c>
       <c r="M32" t="n">
-        <v>758.6839674511596</v>
+        <v>823.743223125412</v>
       </c>
       <c r="N32" t="n">
-        <v>1047.972651127599</v>
+        <v>1113.031906801851</v>
       </c>
       <c r="O32" t="n">
-        <v>1466.296284875061</v>
+        <v>1531.355540549314</v>
       </c>
       <c r="P32" t="n">
-        <v>1813.541269908304</v>
+        <v>1878.600525582556</v>
       </c>
       <c r="Q32" t="n">
-        <v>2044.489658151512</v>
+        <v>2109.548913825764</v>
       </c>
       <c r="R32" t="n">
         <v>2115.835972507351</v>
@@ -6731,10 +6731,10 @@
         <v>2080.733230374528</v>
       </c>
       <c r="U32" t="n">
-        <v>2021.095828142531</v>
+        <v>2021.095828142532</v>
       </c>
       <c r="V32" t="n">
-        <v>1884.241869320256</v>
+        <v>1884.241869320257</v>
       </c>
       <c r="W32" t="n">
         <v>1725.682142571438</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>42.31671945014701</v>
+        <v>67.79303848050026</v>
       </c>
       <c r="C33" t="n">
-        <v>42.31671945014701</v>
+        <v>67.79303848050026</v>
       </c>
       <c r="D33" t="n">
-        <v>42.31671945014701</v>
+        <v>67.79303848050026</v>
       </c>
       <c r="E33" t="n">
-        <v>42.31671945014701</v>
+        <v>67.79303848050026</v>
       </c>
       <c r="F33" t="n">
-        <v>42.31671945014701</v>
+        <v>67.79303848050026</v>
       </c>
       <c r="G33" t="n">
-        <v>42.31671945014701</v>
+        <v>67.79303848050026</v>
       </c>
       <c r="H33" t="n">
-        <v>42.31671945014701</v>
+        <v>67.79303848050026</v>
       </c>
       <c r="I33" t="n">
-        <v>42.31671945014701</v>
+        <v>67.79303848050026</v>
       </c>
       <c r="J33" t="n">
-        <v>42.31671945014701</v>
+        <v>67.79303848050026</v>
       </c>
       <c r="K33" t="n">
-        <v>42.31671945014701</v>
+        <v>102.729566166694</v>
       </c>
       <c r="L33" t="n">
-        <v>211.4289334685717</v>
+        <v>102.729566166694</v>
       </c>
       <c r="M33" t="n">
-        <v>211.4289334685717</v>
+        <v>102.729566166694</v>
       </c>
       <c r="N33" t="n">
-        <v>211.4289334685717</v>
+        <v>102.729566166694</v>
       </c>
       <c r="O33" t="n">
         <v>211.4289334685717</v>
@@ -6835,49 +6835,49 @@
         <v>42.31671945014701</v>
       </c>
       <c r="C34" t="n">
-        <v>42.31671945014701</v>
+        <v>67.08653740622738</v>
       </c>
       <c r="D34" t="n">
-        <v>85.5315720058387</v>
+        <v>110.3013899619191</v>
       </c>
       <c r="E34" t="n">
-        <v>85.5315720058387</v>
+        <v>155.6759377855375</v>
       </c>
       <c r="F34" t="n">
-        <v>131.9089053068587</v>
+        <v>202.0532710865575</v>
       </c>
       <c r="G34" t="n">
-        <v>156.1517536469844</v>
+        <v>202.0532710865575</v>
       </c>
       <c r="H34" t="n">
-        <v>187.7558657622495</v>
+        <v>202.0532710865575</v>
       </c>
       <c r="I34" t="n">
-        <v>230.5117325980558</v>
+        <v>202.0532710865575</v>
       </c>
       <c r="J34" t="n">
-        <v>343.2594323586281</v>
+        <v>202.0532710865575</v>
       </c>
       <c r="K34" t="n">
-        <v>343.2594323586281</v>
+        <v>394.7194399602297</v>
       </c>
       <c r="L34" t="n">
-        <v>343.2594323586281</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="M34" t="n">
-        <v>343.2594323586281</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="N34" t="n">
-        <v>392.5663085773285</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="O34" t="n">
-        <v>392.5663085773285</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="P34" t="n">
-        <v>392.5663085773285</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="Q34" t="n">
-        <v>392.5663085773285</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="R34" t="n">
         <v>416.8210125492992</v>
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.495857298703</v>
+        <v>965.4958572987025</v>
       </c>
       <c r="C35" t="n">
-        <v>821.4700340564239</v>
+        <v>821.4700340564235</v>
       </c>
       <c r="D35" t="n">
-        <v>688.141029147806</v>
+        <v>688.1410291478057</v>
       </c>
       <c r="E35" t="n">
-        <v>527.2894702476945</v>
+        <v>527.2894702476942</v>
       </c>
       <c r="F35" t="n">
-        <v>341.2402591562195</v>
+        <v>341.2402591562193</v>
       </c>
       <c r="G35" t="n">
-        <v>147.1563273602456</v>
+        <v>147.1563273602455</v>
       </c>
       <c r="H35" t="n">
         <v>34.07516997555793</v>
       </c>
       <c r="I35" t="n">
-        <v>64.19145262537583</v>
+        <v>64.19145262537587</v>
       </c>
       <c r="J35" t="n">
-        <v>312.5086587001846</v>
+        <v>312.5086587001847</v>
       </c>
       <c r="K35" t="n">
-        <v>664.8036728012045</v>
+        <v>503.8064993082378</v>
       </c>
       <c r="L35" t="n">
-        <v>725.6453881461998</v>
+        <v>925.4867277557671</v>
       </c>
       <c r="M35" t="n">
-        <v>800.1686776553565</v>
+        <v>1000.010017264924</v>
       </c>
       <c r="N35" t="n">
-        <v>800.1686776553565</v>
+        <v>1076.785699267039</v>
       </c>
       <c r="O35" t="n">
-        <v>1221.848906102886</v>
+        <v>1148.233436214201</v>
       </c>
       <c r="P35" t="n">
-        <v>1535.863316637496</v>
+        <v>1525.594703897262</v>
       </c>
       <c r="Q35" t="n">
         <v>1576.467534036982</v>
@@ -6962,16 +6962,16 @@
         <v>1677.930131042639</v>
       </c>
       <c r="S35" t="n">
-        <v>1702.11603883232</v>
+        <v>1702.116038832319</v>
       </c>
       <c r="T35" t="n">
         <v>1703.758498777896</v>
       </c>
       <c r="U35" t="n">
-        <v>1674.848861722738</v>
+        <v>1674.848861722737</v>
       </c>
       <c r="V35" t="n">
-        <v>1568.7226680773</v>
+        <v>1568.722668077299</v>
       </c>
       <c r="W35" t="n">
         <v>1440.890706505318</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>67.65495279166353</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="C36" t="n">
-        <v>76.86137834097201</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="D36" t="n">
-        <v>76.86137834097201</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="E36" t="n">
-        <v>76.86137834097201</v>
+        <v>56.66066753323287</v>
       </c>
       <c r="F36" t="n">
-        <v>76.86137834097201</v>
+        <v>56.66066753323287</v>
       </c>
       <c r="G36" t="n">
-        <v>76.86137834097201</v>
+        <v>56.66066753323287</v>
       </c>
       <c r="H36" t="n">
-        <v>76.86137834097201</v>
+        <v>56.66066753323287</v>
       </c>
       <c r="I36" t="n">
-        <v>76.86137834097201</v>
+        <v>56.66066753323287</v>
       </c>
       <c r="J36" t="n">
-        <v>76.86137834097201</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="K36" t="n">
-        <v>76.86137834097201</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="L36" t="n">
-        <v>76.86137834097201</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="M36" t="n">
-        <v>76.86137834097201</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="N36" t="n">
-        <v>76.86137834097201</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="O36" t="n">
-        <v>76.86137834097201</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="P36" t="n">
-        <v>76.86137834097201</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.86137834097201</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="R36" t="n">
-        <v>76.86137834097201</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="S36" t="n">
-        <v>76.86137834097201</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="T36" t="n">
-        <v>76.86137834097201</v>
+        <v>76.86137834097192</v>
       </c>
       <c r="U36" t="n">
-        <v>73.59124753923695</v>
+        <v>73.59124753923689</v>
       </c>
       <c r="V36" t="n">
-        <v>63.3758330056269</v>
+        <v>63.37583300562687</v>
       </c>
       <c r="W36" t="n">
         <v>34.07516997555793</v>
       </c>
       <c r="X36" t="n">
-        <v>50.82036811765504</v>
+        <v>34.07516997555793</v>
       </c>
       <c r="Y36" t="n">
-        <v>67.65495279166353</v>
+        <v>34.07516997555793</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>38.1368166505239</v>
+        <v>38.13681665052393</v>
       </c>
       <c r="C37" t="n">
-        <v>70.16609869715212</v>
+        <v>38.13681665052393</v>
       </c>
       <c r="D37" t="n">
-        <v>70.16609869715212</v>
+        <v>38.13681665052393</v>
       </c>
       <c r="E37" t="n">
-        <v>145.6569291705885</v>
+        <v>38.13681665052393</v>
       </c>
       <c r="F37" t="n">
-        <v>145.6569291705885</v>
+        <v>38.13681665052393</v>
       </c>
       <c r="G37" t="n">
-        <v>200.0160601605321</v>
+        <v>38.13681665052393</v>
       </c>
       <c r="H37" t="n">
-        <v>200.0160601605321</v>
+        <v>38.13681665052393</v>
       </c>
       <c r="I37" t="n">
-        <v>200.0160601605321</v>
+        <v>38.13681665052393</v>
       </c>
       <c r="J37" t="n">
-        <v>200.0160601605321</v>
+        <v>38.13681665052393</v>
       </c>
       <c r="K37" t="n">
-        <v>200.0160601605321</v>
+        <v>38.13681665052393</v>
       </c>
       <c r="L37" t="n">
-        <v>200.0160601605321</v>
+        <v>96.63460929588101</v>
       </c>
       <c r="M37" t="n">
-        <v>200.0160601605321</v>
+        <v>96.63460929588101</v>
       </c>
       <c r="N37" t="n">
-        <v>200.0160601605321</v>
+        <v>96.63460929588101</v>
       </c>
       <c r="O37" t="n">
-        <v>200.0160601605321</v>
+        <v>150.6206796466963</v>
       </c>
       <c r="P37" t="n">
-        <v>200.0160601605321</v>
+        <v>173.2944069847851</v>
       </c>
       <c r="Q37" t="n">
-        <v>200.0160601605321</v>
+        <v>200.016060160532</v>
       </c>
       <c r="R37" t="n">
-        <v>200.0160601605321</v>
+        <v>200.016060160532</v>
       </c>
       <c r="S37" t="n">
-        <v>200.0160601605321</v>
+        <v>200.016060160532</v>
       </c>
       <c r="T37" t="n">
-        <v>195.6190720456848</v>
+        <v>195.6190720456847</v>
       </c>
       <c r="U37" t="n">
-        <v>131.3562980220248</v>
+        <v>131.3562980220247</v>
       </c>
       <c r="V37" t="n">
-        <v>101.6085035142706</v>
+        <v>101.6085035142705</v>
       </c>
       <c r="W37" t="n">
-        <v>37.1280271754426</v>
+        <v>37.12802717544257</v>
       </c>
       <c r="X37" t="n">
         <v>34.07516997555793</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.1368166505239</v>
+        <v>38.13681665052393</v>
       </c>
     </row>
     <row r="38">
@@ -7148,67 +7148,67 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.4958572987026</v>
+        <v>965.4958572987031</v>
       </c>
       <c r="C38" t="n">
-        <v>821.4700340564237</v>
+        <v>821.4700340564241</v>
       </c>
       <c r="D38" t="n">
-        <v>688.141029147806</v>
+        <v>688.1410291478063</v>
       </c>
       <c r="E38" t="n">
-        <v>527.2894702476945</v>
+        <v>527.2894702476948</v>
       </c>
       <c r="F38" t="n">
-        <v>341.2402591562196</v>
+        <v>341.2402591562199</v>
       </c>
       <c r="G38" t="n">
         <v>147.1563273602455</v>
       </c>
       <c r="H38" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="I38" t="n">
-        <v>64.19145262537589</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="J38" t="n">
-        <v>312.5086587001847</v>
+        <v>164.6850687832801</v>
       </c>
       <c r="K38" t="n">
-        <v>475.0035139490233</v>
+        <v>547.6403775256586</v>
       </c>
       <c r="L38" t="n">
-        <v>821.362606417905</v>
+        <v>608.482092870654</v>
       </c>
       <c r="M38" t="n">
-        <v>895.8858959270617</v>
+        <v>1030.162321318184</v>
       </c>
       <c r="N38" t="n">
-        <v>1185.174579603501</v>
+        <v>1106.938003320298</v>
       </c>
       <c r="O38" t="n">
-        <v>1256.622316550664</v>
+        <v>1528.618231767828</v>
       </c>
       <c r="P38" t="n">
-        <v>1315.402863143956</v>
+        <v>1643.169249656812</v>
       </c>
       <c r="Q38" t="n">
-        <v>1576.467534036982</v>
+        <v>1643.169249656812</v>
       </c>
       <c r="R38" t="n">
-        <v>1677.930131042639</v>
+        <v>1679.572590988216</v>
       </c>
       <c r="S38" t="n">
-        <v>1702.11603883232</v>
+        <v>1703.758498777897</v>
       </c>
       <c r="T38" t="n">
-        <v>1703.758498777896</v>
+        <v>1703.758498777897</v>
       </c>
       <c r="U38" t="n">
-        <v>1674.848861722737</v>
+        <v>1674.848861722738</v>
       </c>
       <c r="V38" t="n">
-        <v>1568.722668077299</v>
+        <v>1568.7226680773</v>
       </c>
       <c r="W38" t="n">
         <v>1440.890706505318</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="C39" t="n">
-        <v>76.86137834097184</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="D39" t="n">
-        <v>76.86137834097184</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="E39" t="n">
-        <v>76.86137834097184</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="F39" t="n">
-        <v>76.86137834097184</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="G39" t="n">
-        <v>76.86137834097184</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="H39" t="n">
-        <v>76.86137834097184</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="I39" t="n">
-        <v>76.86137834097184</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="J39" t="n">
-        <v>76.86137834097184</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="K39" t="n">
-        <v>76.86137834097184</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="L39" t="n">
-        <v>76.86137834097184</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="M39" t="n">
-        <v>76.86137834097184</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="N39" t="n">
-        <v>76.86137834097184</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="O39" t="n">
-        <v>76.86137834097184</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="P39" t="n">
-        <v>76.86137834097184</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.86137834097184</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="R39" t="n">
-        <v>76.86137834097184</v>
+        <v>76.86137834097194</v>
       </c>
       <c r="S39" t="n">
-        <v>76.86137834097184</v>
+        <v>76.86137834097194</v>
       </c>
       <c r="T39" t="n">
-        <v>76.86137834097184</v>
+        <v>76.86137834097194</v>
       </c>
       <c r="U39" t="n">
-        <v>73.59124753923683</v>
+        <v>73.5912475392369</v>
       </c>
       <c r="V39" t="n">
-        <v>63.37583300562684</v>
+        <v>63.37583300562689</v>
       </c>
       <c r="W39" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="X39" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="Y39" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.07516997555793</v>
+        <v>38.13681665052394</v>
       </c>
       <c r="C40" t="n">
-        <v>34.07516997555793</v>
+        <v>38.13681665052394</v>
       </c>
       <c r="D40" t="n">
-        <v>34.07516997555793</v>
+        <v>38.13681665052394</v>
       </c>
       <c r="E40" t="n">
-        <v>109.5660004489943</v>
+        <v>38.13681665052394</v>
       </c>
       <c r="F40" t="n">
-        <v>145.6450735387432</v>
+        <v>114.6304326013618</v>
       </c>
       <c r="G40" t="n">
-        <v>145.6450735387432</v>
+        <v>168.9895635913055</v>
       </c>
       <c r="H40" t="n">
-        <v>145.6450735387432</v>
+        <v>168.9895635913055</v>
       </c>
       <c r="I40" t="n">
-        <v>145.6450735387432</v>
+        <v>168.9895635913055</v>
       </c>
       <c r="J40" t="n">
-        <v>145.6450735387432</v>
+        <v>168.9895635913055</v>
       </c>
       <c r="K40" t="n">
-        <v>145.6450735387432</v>
+        <v>168.9895635913055</v>
       </c>
       <c r="L40" t="n">
-        <v>145.6450735387432</v>
+        <v>168.9895635913055</v>
       </c>
       <c r="M40" t="n">
-        <v>145.6450735387432</v>
+        <v>168.9895635913055</v>
       </c>
       <c r="N40" t="n">
-        <v>145.6450735387432</v>
+        <v>168.9895635913055</v>
       </c>
       <c r="O40" t="n">
-        <v>145.6450735387432</v>
+        <v>168.9895635913055</v>
       </c>
       <c r="P40" t="n">
-        <v>145.6450735387432</v>
+        <v>168.9895635913055</v>
       </c>
       <c r="Q40" t="n">
-        <v>145.6450735387432</v>
+        <v>168.9895635913055</v>
       </c>
       <c r="R40" t="n">
-        <v>200.0160601605318</v>
+        <v>197.6767194829585</v>
       </c>
       <c r="S40" t="n">
-        <v>200.0160601605318</v>
+        <v>200.016060160532</v>
       </c>
       <c r="T40" t="n">
-        <v>195.6190720456846</v>
+        <v>195.6190720456847</v>
       </c>
       <c r="U40" t="n">
-        <v>131.3562980220246</v>
+        <v>131.3562980220247</v>
       </c>
       <c r="V40" t="n">
-        <v>101.6085035142704</v>
+        <v>101.6085035142705</v>
       </c>
       <c r="W40" t="n">
-        <v>37.12802717544254</v>
+        <v>37.12802717544258</v>
       </c>
       <c r="X40" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.07516997555793</v>
+        <v>38.13681665052394</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>965.4958572987023</v>
+        <v>965.4958572987028</v>
       </c>
       <c r="C41" t="n">
-        <v>821.4700340564232</v>
+        <v>821.4700340564236</v>
       </c>
       <c r="D41" t="n">
-        <v>688.1410291478055</v>
+        <v>688.1410291478057</v>
       </c>
       <c r="E41" t="n">
         <v>527.2894702476942</v>
       </c>
       <c r="F41" t="n">
-        <v>341.2402591562195</v>
+        <v>341.2402591562193</v>
       </c>
       <c r="G41" t="n">
-        <v>147.1563273602456</v>
+        <v>147.1563273602457</v>
       </c>
       <c r="H41" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="I41" t="n">
-        <v>64.19145262537583</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="J41" t="n">
-        <v>312.5086587001846</v>
+        <v>282.3923760503667</v>
       </c>
       <c r="K41" t="n">
-        <v>351.9313227952654</v>
+        <v>344.4437263472919</v>
       </c>
       <c r="L41" t="n">
-        <v>351.9313227952654</v>
+        <v>766.1239547948214</v>
       </c>
       <c r="M41" t="n">
-        <v>715.4546274042864</v>
+        <v>840.6472443039781</v>
       </c>
       <c r="N41" t="n">
-        <v>1004.743311080726</v>
+        <v>1188.516909012931</v>
       </c>
       <c r="O41" t="n">
-        <v>1004.743311080726</v>
+        <v>1259.964645960093</v>
       </c>
       <c r="P41" t="n">
-        <v>1382.104578763786</v>
+        <v>1416.865460149614</v>
       </c>
       <c r="Q41" t="n">
-        <v>1643.169249656812</v>
+        <v>1677.93013104264</v>
       </c>
       <c r="R41" t="n">
-        <v>1679.572590988216</v>
+        <v>1677.93013104264</v>
       </c>
       <c r="S41" t="n">
-        <v>1703.758498777896</v>
+        <v>1702.116038832321</v>
       </c>
       <c r="T41" t="n">
-        <v>1703.758498777896</v>
+        <v>1703.758498777897</v>
       </c>
       <c r="U41" t="n">
-        <v>1674.848861722737</v>
+        <v>1674.848861722738</v>
       </c>
       <c r="V41" t="n">
         <v>1568.722668077299</v>
       </c>
       <c r="W41" t="n">
-        <v>1440.890706505317</v>
+        <v>1440.890706505318</v>
       </c>
       <c r="X41" t="n">
-        <v>1292.36164194237</v>
+        <v>1292.361641942371</v>
       </c>
       <c r="Y41" t="n">
-        <v>1127.159003664691</v>
+        <v>1127.159003664692</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="C42" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="D42" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="E42" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="F42" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="G42" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="H42" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="I42" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="J42" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="K42" t="n">
-        <v>34.07516997555793</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="L42" t="n">
-        <v>34.07516997555793</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="M42" t="n">
-        <v>34.07516997555793</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="N42" t="n">
-        <v>34.07516997555793</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="O42" t="n">
-        <v>34.07516997555793</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="P42" t="n">
-        <v>34.07516997555793</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.07516997555793</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="R42" t="n">
-        <v>34.07516997555793</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="S42" t="n">
-        <v>76.86137834097201</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="T42" t="n">
-        <v>76.86137834097201</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="U42" t="n">
-        <v>73.59124753923695</v>
+        <v>73.59124753923707</v>
       </c>
       <c r="V42" t="n">
-        <v>63.3758330056269</v>
+        <v>63.37583300562697</v>
       </c>
       <c r="W42" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="X42" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="Y42" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="C43" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="D43" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="E43" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="F43" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="G43" t="n">
-        <v>34.07516997555793</v>
+        <v>83.92467877366107</v>
       </c>
       <c r="H43" t="n">
-        <v>34.07516997555793</v>
+        <v>145.6450735387439</v>
       </c>
       <c r="I43" t="n">
-        <v>34.07516997555793</v>
+        <v>145.6450735387439</v>
       </c>
       <c r="J43" t="n">
-        <v>34.07516997555793</v>
+        <v>145.6450735387439</v>
       </c>
       <c r="K43" t="n">
-        <v>34.07516997555793</v>
+        <v>145.6450735387439</v>
       </c>
       <c r="L43" t="n">
-        <v>34.07516997555793</v>
+        <v>145.6450735387439</v>
       </c>
       <c r="M43" t="n">
-        <v>34.07516997555793</v>
+        <v>145.6450735387439</v>
       </c>
       <c r="N43" t="n">
-        <v>34.07516997555793</v>
+        <v>145.6450735387439</v>
       </c>
       <c r="O43" t="n">
-        <v>34.07516997555793</v>
+        <v>145.6450735387439</v>
       </c>
       <c r="P43" t="n">
-        <v>200.0160601605321</v>
+        <v>145.6450735387439</v>
       </c>
       <c r="Q43" t="n">
-        <v>200.0160601605321</v>
+        <v>145.6450735387439</v>
       </c>
       <c r="R43" t="n">
-        <v>200.0160601605321</v>
+        <v>200.0160601605324</v>
       </c>
       <c r="S43" t="n">
-        <v>200.0160601605321</v>
+        <v>200.0160601605324</v>
       </c>
       <c r="T43" t="n">
-        <v>195.6190720456848</v>
+        <v>195.6190720456851</v>
       </c>
       <c r="U43" t="n">
-        <v>131.3562980220248</v>
+        <v>131.356298022025</v>
       </c>
       <c r="V43" t="n">
-        <v>101.6085035142706</v>
+        <v>101.6085035142707</v>
       </c>
       <c r="W43" t="n">
-        <v>37.1280271754426</v>
+        <v>37.12802717544267</v>
       </c>
       <c r="X43" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
     </row>
     <row r="44">
@@ -7622,64 +7622,64 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>965.4958572987027</v>
+        <v>965.4958572987024</v>
       </c>
       <c r="C44" t="n">
-        <v>821.4700340564239</v>
+        <v>821.4700340564234</v>
       </c>
       <c r="D44" t="n">
-        <v>688.141029147806</v>
+        <v>688.1410291478057</v>
       </c>
       <c r="E44" t="n">
-        <v>527.2894702476945</v>
+        <v>527.2894702476942</v>
       </c>
       <c r="F44" t="n">
-        <v>341.2402591562195</v>
+        <v>341.2402591562193</v>
       </c>
       <c r="G44" t="n">
-        <v>147.1563273602456</v>
+        <v>147.1563273602457</v>
       </c>
       <c r="H44" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="I44" t="n">
-        <v>64.19145262537583</v>
+        <v>64.1914526253758</v>
       </c>
       <c r="J44" t="n">
         <v>312.5086587001846</v>
       </c>
       <c r="K44" t="n">
-        <v>475.0035139490232</v>
+        <v>312.5086587001846</v>
       </c>
       <c r="L44" t="n">
-        <v>718.8675738355807</v>
+        <v>441.8380775042108</v>
       </c>
       <c r="M44" t="n">
-        <v>793.3908633447375</v>
+        <v>516.3613670133675</v>
       </c>
       <c r="N44" t="n">
-        <v>870.1665453468521</v>
+        <v>938.041595460897</v>
       </c>
       <c r="O44" t="n">
-        <v>1256.622316550664</v>
+        <v>938.041595460897</v>
       </c>
       <c r="P44" t="n">
-        <v>1315.402863143957</v>
+        <v>1315.402863143958</v>
       </c>
       <c r="Q44" t="n">
-        <v>1576.467534036982</v>
+        <v>1576.467534036983</v>
       </c>
       <c r="R44" t="n">
-        <v>1677.930131042639</v>
+        <v>1677.93013104264</v>
       </c>
       <c r="S44" t="n">
-        <v>1702.11603883232</v>
+        <v>1702.116038832321</v>
       </c>
       <c r="T44" t="n">
-        <v>1703.758498777896</v>
+        <v>1703.758498777897</v>
       </c>
       <c r="U44" t="n">
-        <v>1674.848861722737</v>
+        <v>1674.848861722738</v>
       </c>
       <c r="V44" t="n">
         <v>1568.722668077299</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="C45" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="D45" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="E45" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="F45" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="G45" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="H45" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="I45" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="J45" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="K45" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="L45" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="M45" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="N45" t="n">
-        <v>34.07516997555793</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="O45" t="n">
-        <v>53.55558339868595</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="P45" t="n">
-        <v>53.55558339868595</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="Q45" t="n">
-        <v>53.55558339868595</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="R45" t="n">
-        <v>53.55558339868595</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="S45" t="n">
-        <v>53.55558339868595</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="T45" t="n">
-        <v>76.86137834097201</v>
+        <v>76.86137834097219</v>
       </c>
       <c r="U45" t="n">
-        <v>73.59124753923695</v>
+        <v>73.59124753923707</v>
       </c>
       <c r="V45" t="n">
-        <v>63.3758330056269</v>
+        <v>63.37583300562697</v>
       </c>
       <c r="W45" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="X45" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="C46" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="D46" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="E46" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="F46" t="n">
-        <v>83.93653440550553</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="G46" t="n">
-        <v>138.2956653954492</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="H46" t="n">
-        <v>200.0160601605321</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="I46" t="n">
-        <v>200.0160601605321</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="J46" t="n">
-        <v>200.0160601605321</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="K46" t="n">
-        <v>200.0160601605321</v>
+        <v>84.2133275240579</v>
       </c>
       <c r="L46" t="n">
-        <v>200.0160601605321</v>
+        <v>84.2133275240579</v>
       </c>
       <c r="M46" t="n">
-        <v>200.0160601605321</v>
+        <v>200.0160601605324</v>
       </c>
       <c r="N46" t="n">
-        <v>200.0160601605321</v>
+        <v>200.0160601605324</v>
       </c>
       <c r="O46" t="n">
-        <v>200.0160601605321</v>
+        <v>200.0160601605324</v>
       </c>
       <c r="P46" t="n">
-        <v>200.0160601605321</v>
+        <v>200.0160601605324</v>
       </c>
       <c r="Q46" t="n">
-        <v>200.0160601605321</v>
+        <v>200.0160601605324</v>
       </c>
       <c r="R46" t="n">
-        <v>200.0160601605321</v>
+        <v>200.0160601605324</v>
       </c>
       <c r="S46" t="n">
-        <v>200.0160601605321</v>
+        <v>200.0160601605324</v>
       </c>
       <c r="T46" t="n">
-        <v>195.6190720456848</v>
+        <v>195.6190720456851</v>
       </c>
       <c r="U46" t="n">
-        <v>131.3562980220248</v>
+        <v>131.356298022025</v>
       </c>
       <c r="V46" t="n">
-        <v>101.6085035142706</v>
+        <v>101.6085035142707</v>
       </c>
       <c r="W46" t="n">
-        <v>37.1280271754426</v>
+        <v>37.12802717544267</v>
       </c>
       <c r="X46" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.07516997555793</v>
+        <v>34.07516997555794</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>58.10290436904516</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>161.2310486348934</v>
       </c>
       <c r="M11" t="n">
-        <v>17.08764941871411</v>
+        <v>147.4112767519021</v>
       </c>
       <c r="N11" t="n">
-        <v>145.1361328196213</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>253.5372639337547</v>
       </c>
       <c r="P11" t="n">
-        <v>98.12922536875068</v>
+        <v>57.78470115412908</v>
       </c>
       <c r="Q11" t="n">
-        <v>171.3006296503229</v>
+        <v>64.26076198220927</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>65.61538793357946</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>75.77466934737397</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>160.0091951480955</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>199.0666051630296</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>147.4112767519021</v>
       </c>
       <c r="N14" t="n">
-        <v>39.84402065741817</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>150.5178955013912</v>
+        <v>150.5178955013911</v>
       </c>
       <c r="P14" t="n">
-        <v>61.40674649392652</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>171.3006296503229</v>
+        <v>171.3006296503228</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>56.27316960486313</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>115.7594603922057</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>32.38444732935514</v>
+        <v>33.80768741172822</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9618319903678</v>
       </c>
       <c r="K27" t="n">
-        <v>97.03390299193963</v>
+        <v>97.0339029919396</v>
       </c>
       <c r="L27" t="n">
-        <v>83.6836116887839</v>
+        <v>83.68361168878386</v>
       </c>
       <c r="M27" t="n">
-        <v>78.10243564664644</v>
+        <v>78.1024356466464</v>
       </c>
       <c r="N27" t="n">
-        <v>65.6153879335795</v>
+        <v>65.61538793357946</v>
       </c>
       <c r="O27" t="n">
-        <v>82.46949852711541</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>85.71739294811695</v>
+        <v>256.5378111485459</v>
       </c>
       <c r="Q27" t="n">
-        <v>107.7232378871913</v>
+        <v>107.7232378871912</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,28 +10030,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>104.3983137891471</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>105.7148695525911</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>108.5102821731397</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>196.2884298464639</v>
+        <v>103.4927817027224</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10185,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>102.9618319903678</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>85.71739294811692</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>107.7232378871912</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>23.5275511399886</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10276,19 +10276,19 @@
         <v>103.3860221017998</v>
       </c>
       <c r="M31" t="n">
-        <v>105.7148695525912</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>157.4283320551319</v>
+        <v>95.26431138448913</v>
       </c>
       <c r="O31" t="n">
-        <v>108.5102821731398</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>112.1038084270827</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>394.1794184888922</v>
+        <v>406.9882645061033</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>102.9618319903678</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5944485115984</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>85.71739294811692</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>104.3983137891471</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>103.3860221017998</v>
+        <v>125.7108428988397</v>
       </c>
       <c r="M34" t="n">
-        <v>105.7148695525912</v>
+        <v>105.7148695525911</v>
       </c>
       <c r="N34" t="n">
-        <v>145.0692368579239</v>
+        <v>95.26431138448913</v>
       </c>
       <c r="O34" t="n">
-        <v>108.5102821731398</v>
+        <v>108.5102821731397</v>
       </c>
       <c r="P34" t="n">
         <v>112.1038084270827</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>293.175417983934</v>
+        <v>130.5520104152806</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>364.4833465682161</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>353.770193434714</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10659,34 +10659,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>123.3665903820234</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>97.0339029919396</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>83.68361168878386</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>78.1024356466464</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>65.61538793357946</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>82.46949852711535</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>85.71739294811692</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>107.7232378871912</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,22 +10744,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>104.3983137891471</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>103.3860221017998</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>105.7148695525912</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>95.26431138448916</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>108.5102821731398</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>112.1038084270827</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10826,25 +10826,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>397.0140752989128</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>350.6635746852251</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>353.7701934347141</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>56.3338093895875</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>97.0339029919396</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>65.61538793357946</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>82.46949852711535</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>107.7232378871912</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10984,19 +10984,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>105.7148695525911</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>95.26431138448913</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>108.5102821731397</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>112.1038084270827</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11063,13 +11063,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>364.4833465682163</v>
       </c>
       <c r="M41" t="n">
-        <v>291.9192071715801</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>273.8323057644827</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>140.2522952802368</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>82.46949852711535</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>85.71739294811692</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11215,25 +11215,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>104.3983137891471</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>103.3860221017998</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>105.7148695525912</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>95.26431138448916</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>108.5102821731398</v>
+        <v>79.4548338059119</v>
       </c>
       <c r="P43" t="n">
-        <v>57.03354245883463</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>160.0091951480954</v>
       </c>
       <c r="L44" t="n">
-        <v>184.8710550924871</v>
+        <v>69.1794984434656</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>348.3884307529443</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>150.5178955013911</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,10 +11373,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>102.9618319903678</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>91.46135999522839</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,10 +11385,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>65.6153879335795</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>102.1466838030023</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11461,13 +11461,13 @@
         <v>103.3860221017998</v>
       </c>
       <c r="M46" t="n">
-        <v>105.7148695525912</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>95.26431138448916</v>
+        <v>95.26431138448913</v>
       </c>
       <c r="O46" t="n">
-        <v>108.5102821731398</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.8081824520667</v>
+        <v>74.7888140197031</v>
       </c>
       <c r="C11" t="n">
         <v>160.3472325595937</v>
       </c>
       <c r="D11" t="n">
-        <v>121.5027480280483</v>
+        <v>149.7573824092691</v>
       </c>
       <c r="E11" t="n">
-        <v>73.98534242848433</v>
+        <v>86.2652511456221</v>
       </c>
       <c r="F11" t="n">
-        <v>98.93101809793399</v>
+        <v>201.9503865302975</v>
       </c>
       <c r="G11" t="n">
-        <v>209.9047600277515</v>
+        <v>209.9047600277514</v>
       </c>
       <c r="H11" t="n">
-        <v>26.69264492821466</v>
+        <v>26.69264492821463</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>16.10261709965996</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.38220823434503</v>
       </c>
       <c r="V11" t="n">
         <v>122.826599258721</v>
@@ -23324,7 +23324,7 @@
         <v>164.8054414670551</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.3122794446397</v>
+        <v>78.29291101227611</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133.450930971186</v>
+        <v>74.78881401970315</v>
       </c>
       <c r="C14" t="n">
         <v>160.3472325595937</v>
@@ -23501,16 +23501,16 @@
         <v>149.7573824092691</v>
       </c>
       <c r="E14" t="n">
-        <v>177.0047108608479</v>
+        <v>148.750076479627</v>
       </c>
       <c r="F14" t="n">
-        <v>201.9503865302976</v>
+        <v>98.93101809793399</v>
       </c>
       <c r="G14" t="n">
-        <v>106.8853915953879</v>
+        <v>209.9047600277514</v>
       </c>
       <c r="H14" t="n">
-        <v>26.69264492821469</v>
+        <v>129.7120133605782</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>16.10261709965999</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>122.826599258721</v>
       </c>
       <c r="W14" t="n">
-        <v>144.3153095059992</v>
+        <v>144.3153095059991</v>
       </c>
       <c r="X14" t="n">
-        <v>61.78607303469161</v>
+        <v>164.8054414670551</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.3122794446397</v>
+        <v>78.29291101227611</v>
       </c>
     </row>
     <row r="15">
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143373.3592754817</v>
+        <v>143373.3592754818</v>
       </c>
       <c r="C2" t="n">
         <v>143373.3592754818</v>
       </c>
       <c r="D2" t="n">
-        <v>143373.3592754817</v>
+        <v>143373.3592754818</v>
       </c>
       <c r="E2" t="n">
         <v>123032.0381205445</v>
@@ -26335,10 +26335,10 @@
         <v>143682.3097262497</v>
       </c>
       <c r="J2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262494</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262495</v>
@@ -26396,13 +26396,13 @@
         <v>103769.6106884626</v>
       </c>
       <c r="M3" t="n">
-        <v>24336.39002005486</v>
+        <v>24336.39002005489</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>50043.86070040359</v>
+        <v>50043.86070040357</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26052.73677594693</v>
+        <v>26052.73677594694</v>
       </c>
       <c r="F5" t="n">
         <v>26052.73677594693</v>
@@ -26494,7 +26494,7 @@
         <v>50885.65162086484</v>
       </c>
       <c r="K5" t="n">
-        <v>50885.65162086485</v>
+        <v>50885.65162086484</v>
       </c>
       <c r="L5" t="n">
         <v>50885.65162086484</v>
@@ -26503,7 +26503,7 @@
         <v>47179.49398592213</v>
       </c>
       <c r="N5" t="n">
-        <v>47179.49398592213</v>
+        <v>47179.49398592215</v>
       </c>
       <c r="O5" t="n">
         <v>47179.49398592213</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357870.2006562495</v>
+        <v>-357874.6142341176</v>
       </c>
       <c r="C6" t="n">
-        <v>-357870.2006562494</v>
+        <v>-357874.6142341176</v>
       </c>
       <c r="D6" t="n">
-        <v>-357870.2006562495</v>
+        <v>-357874.6142341176</v>
       </c>
       <c r="E6" t="n">
-        <v>-554658.2989295457</v>
+        <v>-554953.3028096271</v>
       </c>
       <c r="F6" t="n">
-        <v>-265567.3020052243</v>
+        <v>-265862.3058853058</v>
       </c>
       <c r="G6" t="n">
         <v>-425113.8374572663</v>
       </c>
       <c r="H6" t="n">
-        <v>-321344.2267688038</v>
+        <v>-321344.2267688037</v>
       </c>
       <c r="I6" t="n">
         <v>-321344.2267688037</v>
       </c>
       <c r="J6" t="n">
-        <v>-504950.8946213368</v>
+        <v>-504950.8946213371</v>
       </c>
       <c r="K6" t="n">
-        <v>-343462.4867573725</v>
+        <v>-343462.4867573724</v>
       </c>
       <c r="L6" t="n">
-        <v>-447232.097445835</v>
+        <v>-447232.0974458351</v>
       </c>
       <c r="M6" t="n">
-        <v>-361022.824104673</v>
+        <v>-361022.8241046731</v>
       </c>
       <c r="N6" t="n">
         <v>-336686.4340846182</v>
       </c>
       <c r="O6" t="n">
-        <v>-386730.2947850218</v>
+        <v>-386730.2947850217</v>
       </c>
       <c r="P6" t="n">
         <v>-336686.4340846182</v>
@@ -26710,13 +26710,13 @@
         <v>192.2668392360827</v>
       </c>
       <c r="K2" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="L2" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="M2" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="N2" t="n">
         <v>222.6873267611514</v>
@@ -26811,7 +26811,7 @@
         <v>103.0193684323636</v>
       </c>
       <c r="J4" t="n">
-        <v>528.9589931268376</v>
+        <v>528.9589931268375</v>
       </c>
       <c r="K4" t="n">
         <v>528.9589931268376</v>
@@ -26820,16 +26820,16 @@
         <v>528.9589931268376</v>
       </c>
       <c r="M4" t="n">
-        <v>425.9396246944741</v>
+        <v>425.939624694474</v>
       </c>
       <c r="N4" t="n">
-        <v>425.9396246944741</v>
+        <v>425.9396246944743</v>
       </c>
       <c r="O4" t="n">
-        <v>425.9396246944741</v>
+        <v>425.9396246944743</v>
       </c>
       <c r="P4" t="n">
-        <v>425.9396246944741</v>
+        <v>425.9396246944743</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26938,13 @@
         <v>129.7120133605782</v>
       </c>
       <c r="M2" t="n">
-        <v>30.42048752506858</v>
+        <v>30.42048752506861</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.55482587550449</v>
+        <v>62.55482587550446</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>425.9396246944741</v>
+        <v>425.939624694474</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -28111,28 +28111,28 @@
         <v>204.9256592114139</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="K11" t="n">
         <v>204.9256592114139</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>204.9256592114139</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>105.5283361188477</v>
+      </c>
+      <c r="Q11" t="n">
         <v>204.9256592114139</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>204.9256592114139</v>
-      </c>
-      <c r="P11" t="n">
-        <v>65.18381190422613</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>204.9256592114139</v>
@@ -28187,40 +28187,40 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I12" t="n">
-        <v>90.82153100464481</v>
+        <v>80.69578385605988</v>
       </c>
       <c r="J12" t="n">
         <v>102.9618319903678</v>
       </c>
       <c r="K12" t="n">
-        <v>97.03390299193963</v>
+        <v>97.0339029919396</v>
       </c>
       <c r="L12" t="n">
-        <v>83.6836116887839</v>
+        <v>182.9058456332041</v>
       </c>
       <c r="M12" t="n">
-        <v>78.10243564664644</v>
+        <v>78.1024356466464</v>
       </c>
       <c r="N12" t="n">
-        <v>65.6153879335795</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>137.9756799974233</v>
+        <v>82.46949852711535</v>
       </c>
       <c r="P12" t="n">
-        <v>85.71739294811695</v>
+        <v>85.71739294811692</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.7232378871913</v>
+        <v>107.7232378871912</v>
       </c>
       <c r="R12" t="n">
         <v>129.9891576737413</v>
       </c>
       <c r="S12" t="n">
-        <v>204.9256592114139</v>
+        <v>166.9891461999742</v>
       </c>
       <c r="T12" t="n">
-        <v>204.9256592114139</v>
+        <v>199.1461197487412</v>
       </c>
       <c r="U12" t="n">
         <v>204.9256592114139</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>203.0142747928563</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -28254,7 +28254,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -28266,34 +28266,34 @@
         <v>160.343493665108</v>
       </c>
       <c r="I13" t="n">
-        <v>204.9256592114139</v>
+        <v>149.0790949574905</v>
       </c>
       <c r="J13" t="n">
         <v>112.0165151440865</v>
       </c>
       <c r="K13" t="n">
+        <v>104.3983137891471</v>
+      </c>
+      <c r="L13" t="n">
         <v>204.9256592114139</v>
       </c>
-      <c r="L13" t="n">
-        <v>103.3860221017998</v>
-      </c>
       <c r="M13" t="n">
-        <v>105.7148695525912</v>
+        <v>140.7379327632662</v>
       </c>
       <c r="N13" t="n">
-        <v>95.26431138448916</v>
+        <v>95.26431138448913</v>
       </c>
       <c r="O13" t="n">
-        <v>108.5102821731398</v>
+        <v>108.5102821731397</v>
       </c>
       <c r="P13" t="n">
-        <v>112.1038084270827</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.9256592114139</v>
+        <v>133.7641367861777</v>
       </c>
       <c r="R13" t="n">
-        <v>204.9256592114139</v>
+        <v>167.7671382542942</v>
       </c>
       <c r="S13" t="n">
         <v>204.9256592114139</v>
@@ -28348,16 +28348,16 @@
         <v>204.9256592114139</v>
       </c>
       <c r="J14" t="n">
-        <v>65.18381190422609</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="L14" t="n">
-        <v>204.9256592114139</v>
+        <v>65.18381190422734</v>
       </c>
       <c r="M14" t="n">
-        <v>204.9256592114139</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>204.9256592114139</v>
@@ -28406,7 +28406,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>176.7998466854911</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -28421,37 +28421,37 @@
         <v>137.0908046064029</v>
       </c>
       <c r="H15" t="n">
-        <v>204.9256592114139</v>
+        <v>134.0805053709165</v>
       </c>
       <c r="I15" t="n">
-        <v>90.82153100464481</v>
+        <v>90.8215310046448</v>
       </c>
       <c r="J15" t="n">
         <v>102.9618319903678</v>
       </c>
       <c r="K15" t="n">
-        <v>97.03390299193963</v>
+        <v>97.0339029919396</v>
       </c>
       <c r="L15" t="n">
-        <v>83.6836116887839</v>
+        <v>83.68361168878386</v>
       </c>
       <c r="M15" t="n">
-        <v>78.10243564664644</v>
+        <v>78.1024356466464</v>
       </c>
       <c r="N15" t="n">
-        <v>65.6153879335795</v>
+        <v>65.61538793357946</v>
       </c>
       <c r="O15" t="n">
-        <v>82.46949852711541</v>
+        <v>82.46949852711535</v>
       </c>
       <c r="P15" t="n">
-        <v>85.71739294811695</v>
+        <v>85.71739294811692</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.7232378871913</v>
+        <v>107.7232378871912</v>
       </c>
       <c r="R15" t="n">
-        <v>129.9891576737413</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="S15" t="n">
         <v>166.9891461999742</v>
@@ -28488,13 +28488,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>161.1092115708126</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="G16" t="n">
         <v>167.7791136399961</v>
@@ -28503,25 +28503,25 @@
         <v>160.343493665108</v>
       </c>
       <c r="I16" t="n">
-        <v>149.0790949574905</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="J16" t="n">
         <v>112.0165151440865</v>
       </c>
       <c r="K16" t="n">
-        <v>204.9256592114139</v>
+        <v>104.3983137891471</v>
       </c>
       <c r="L16" t="n">
         <v>204.9256592114139</v>
       </c>
       <c r="M16" t="n">
-        <v>105.7148695525912</v>
+        <v>105.7148695525911</v>
       </c>
       <c r="N16" t="n">
-        <v>181.0735765220737</v>
+        <v>95.26431138448913</v>
       </c>
       <c r="O16" t="n">
-        <v>108.5102821731398</v>
+        <v>108.5102821731397</v>
       </c>
       <c r="P16" t="n">
         <v>112.1038084270827</v>
@@ -28582,37 +28582,37 @@
         <v>334.6376725719921</v>
       </c>
       <c r="I17" t="n">
-        <v>295.2862076684463</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="J17" t="n">
-        <v>140.9584812516001</v>
+        <v>243.9778496839636</v>
       </c>
       <c r="K17" t="n">
-        <v>160.0091951480955</v>
+        <v>160.0091951480954</v>
       </c>
       <c r="L17" t="n">
-        <v>161.2310486348934</v>
+        <v>169.8727991146266</v>
       </c>
       <c r="M17" t="n">
-        <v>147.4112767519022</v>
+        <v>147.4112767519021</v>
       </c>
       <c r="N17" t="n">
-        <v>145.1361328196213</v>
+        <v>248.1555012519849</v>
       </c>
       <c r="O17" t="n">
-        <v>150.5178955013912</v>
+        <v>150.5178955013911</v>
       </c>
       <c r="P17" t="n">
         <v>163.3130372729768</v>
       </c>
       <c r="Q17" t="n">
-        <v>274.3199980826864</v>
+        <v>171.3006296503228</v>
       </c>
       <c r="R17" t="n">
         <v>185.9162749112483</v>
       </c>
       <c r="S17" t="n">
-        <v>213.7842814541754</v>
+        <v>198.257116872585</v>
       </c>
       <c r="T17" t="n">
         <v>324.0476447434374</v>
@@ -28621,7 +28621,7 @@
         <v>334.6376725719921</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="W17" t="n">
         <v>334.6376725719921</v>
@@ -28661,31 +28661,31 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I18" t="n">
-        <v>90.82153100464481</v>
+        <v>90.8215310046448</v>
       </c>
       <c r="J18" t="n">
         <v>102.9618319903678</v>
       </c>
       <c r="K18" t="n">
-        <v>97.03390299193963</v>
+        <v>97.0339029919396</v>
       </c>
       <c r="L18" t="n">
-        <v>83.6836116887839</v>
+        <v>83.68361168878386</v>
       </c>
       <c r="M18" t="n">
-        <v>78.10243564664644</v>
+        <v>78.1024356466464</v>
       </c>
       <c r="N18" t="n">
-        <v>65.6153879335795</v>
+        <v>65.61538793357946</v>
       </c>
       <c r="O18" t="n">
-        <v>82.46949852711541</v>
+        <v>82.46949852711535</v>
       </c>
       <c r="P18" t="n">
-        <v>85.71739294811695</v>
+        <v>85.71739294811692</v>
       </c>
       <c r="Q18" t="n">
-        <v>107.7232378871913</v>
+        <v>107.7232378871912</v>
       </c>
       <c r="R18" t="n">
         <v>129.9891576737413</v>
@@ -28752,13 +28752,13 @@
         <v>103.3860221017998</v>
       </c>
       <c r="M19" t="n">
-        <v>105.7148695525912</v>
+        <v>105.7148695525911</v>
       </c>
       <c r="N19" t="n">
-        <v>95.26431138448916</v>
+        <v>95.26431138448913</v>
       </c>
       <c r="O19" t="n">
-        <v>108.5102821731398</v>
+        <v>108.5102821731397</v>
       </c>
       <c r="P19" t="n">
         <v>112.1038084270827</v>
@@ -28822,43 +28822,43 @@
         <v>295.2862076684463</v>
       </c>
       <c r="J20" t="n">
-        <v>140.9584812516001</v>
+        <v>243.9778496839636</v>
       </c>
       <c r="K20" t="n">
-        <v>263.028563580459</v>
+        <v>168.6509456278287</v>
       </c>
       <c r="L20" t="n">
         <v>161.2310486348934</v>
       </c>
       <c r="M20" t="n">
-        <v>147.4112767519022</v>
+        <v>147.4112767519021</v>
       </c>
       <c r="N20" t="n">
         <v>145.1361328196213</v>
       </c>
       <c r="O20" t="n">
-        <v>150.5178955013912</v>
+        <v>150.5178955013911</v>
       </c>
       <c r="P20" t="n">
-        <v>266.3324057053404</v>
+        <v>163.3130372729768</v>
       </c>
       <c r="Q20" t="n">
-        <v>171.3006296503229</v>
+        <v>171.3006296503228</v>
       </c>
       <c r="R20" t="n">
         <v>185.9162749112483</v>
       </c>
       <c r="S20" t="n">
-        <v>198.257116872585</v>
+        <v>301.2764853049486</v>
       </c>
       <c r="T20" t="n">
-        <v>236.5554408926643</v>
+        <v>221.0282763110739</v>
       </c>
       <c r="U20" t="n">
         <v>334.6376725719921</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="W20" t="n">
         <v>334.6376725719921</v>
@@ -28898,31 +28898,31 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I21" t="n">
-        <v>90.82153100464481</v>
+        <v>90.8215310046448</v>
       </c>
       <c r="J21" t="n">
         <v>102.9618319903678</v>
       </c>
       <c r="K21" t="n">
-        <v>97.03390299193963</v>
+        <v>97.0339029919396</v>
       </c>
       <c r="L21" t="n">
-        <v>83.6836116887839</v>
+        <v>83.68361168878386</v>
       </c>
       <c r="M21" t="n">
-        <v>78.10243564664644</v>
+        <v>78.1024356466464</v>
       </c>
       <c r="N21" t="n">
-        <v>65.6153879335795</v>
+        <v>65.61538793357946</v>
       </c>
       <c r="O21" t="n">
-        <v>82.46949852711541</v>
+        <v>82.46949852711535</v>
       </c>
       <c r="P21" t="n">
-        <v>85.71739294811695</v>
+        <v>85.71739294811692</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.7232378871913</v>
+        <v>107.7232378871912</v>
       </c>
       <c r="R21" t="n">
         <v>129.9891576737413</v>
@@ -28989,13 +28989,13 @@
         <v>103.3860221017998</v>
       </c>
       <c r="M22" t="n">
-        <v>105.7148695525912</v>
+        <v>105.7148695525911</v>
       </c>
       <c r="N22" t="n">
-        <v>95.26431138448916</v>
+        <v>95.26431138448913</v>
       </c>
       <c r="O22" t="n">
-        <v>108.5102821731398</v>
+        <v>108.5102821731397</v>
       </c>
       <c r="P22" t="n">
         <v>112.1038084270827</v>
@@ -29056,34 +29056,34 @@
         <v>334.6376725719921</v>
       </c>
       <c r="I23" t="n">
-        <v>192.2668392360827</v>
+        <v>295.2862076684463</v>
       </c>
       <c r="J23" t="n">
-        <v>140.9584812516001</v>
+        <v>149.6002317313332</v>
       </c>
       <c r="K23" t="n">
-        <v>160.0091951480955</v>
+        <v>160.0091951480954</v>
       </c>
       <c r="L23" t="n">
-        <v>264.250417067257</v>
+        <v>161.2310486348934</v>
       </c>
       <c r="M23" t="n">
-        <v>147.4112767519022</v>
+        <v>250.4306451842657</v>
       </c>
       <c r="N23" t="n">
         <v>145.1361328196213</v>
       </c>
       <c r="O23" t="n">
-        <v>150.5178955013912</v>
+        <v>150.5178955013911</v>
       </c>
       <c r="P23" t="n">
         <v>163.3130372729768</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.8277942319132</v>
+        <v>171.3006296503228</v>
       </c>
       <c r="R23" t="n">
-        <v>288.9356433436119</v>
+        <v>185.9162749112483</v>
       </c>
       <c r="S23" t="n">
         <v>198.257116872585</v>
@@ -29095,7 +29095,7 @@
         <v>334.6376725719921</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="W23" t="n">
         <v>334.6376725719921</v>
@@ -29135,31 +29135,31 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I24" t="n">
-        <v>90.82153100464481</v>
+        <v>90.8215310046448</v>
       </c>
       <c r="J24" t="n">
         <v>102.9618319903678</v>
       </c>
       <c r="K24" t="n">
-        <v>97.03390299193963</v>
+        <v>97.0339029919396</v>
       </c>
       <c r="L24" t="n">
-        <v>83.6836116887839</v>
+        <v>83.68361168878386</v>
       </c>
       <c r="M24" t="n">
-        <v>78.10243564664644</v>
+        <v>78.1024356466464</v>
       </c>
       <c r="N24" t="n">
-        <v>65.6153879335795</v>
+        <v>65.61538793357946</v>
       </c>
       <c r="O24" t="n">
-        <v>82.46949852711541</v>
+        <v>82.46949852711535</v>
       </c>
       <c r="P24" t="n">
-        <v>85.71739294811695</v>
+        <v>85.71739294811692</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.7232378871913</v>
+        <v>107.7232378871912</v>
       </c>
       <c r="R24" t="n">
         <v>129.9891576737413</v>
@@ -29226,13 +29226,13 @@
         <v>103.3860221017998</v>
       </c>
       <c r="M25" t="n">
-        <v>105.7148695525912</v>
+        <v>105.7148695525911</v>
       </c>
       <c r="N25" t="n">
-        <v>95.26431138448916</v>
+        <v>95.26431138448913</v>
       </c>
       <c r="O25" t="n">
-        <v>108.5102821731398</v>
+        <v>108.5102821731397</v>
       </c>
       <c r="P25" t="n">
         <v>112.1038084270827</v>
@@ -29296,22 +29296,22 @@
         <v>192.2668392360827</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="K26" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="L26" t="n">
+        <v>135.847247753093</v>
+      </c>
+      <c r="M26" t="n">
         <v>192.2668392360827</v>
-      </c>
-      <c r="M26" t="n">
-        <v>115.026829422547</v>
       </c>
       <c r="N26" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="O26" t="n">
-        <v>192.2668392360827</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>192.2668392360827</v>
@@ -29354,7 +29354,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>183.5509654225723</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -29372,7 +29372,7 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I27" t="n">
-        <v>192.2668392360827</v>
+        <v>80.69578385605988</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29390,7 +29390,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>82.46949852711535</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -29399,10 +29399,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>129.9891576737413</v>
+        <v>84.46748786242043</v>
       </c>
       <c r="S27" t="n">
-        <v>192.2668392360827</v>
+        <v>166.9891461999742</v>
       </c>
       <c r="T27" t="n">
         <v>192.2668392360827</v>
@@ -29436,46 +29436,46 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>171.5553892682572</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
+        <v>145.4210480229312</v>
+      </c>
+      <c r="G28" t="n">
         <v>192.2668392360827</v>
-      </c>
-      <c r="G28" t="n">
-        <v>167.7791136399961</v>
       </c>
       <c r="H28" t="n">
         <v>160.343493665108</v>
       </c>
       <c r="I28" t="n">
+        <v>149.0790949574905</v>
+      </c>
+      <c r="J28" t="n">
+        <v>93.16445802119725</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>95.26431138448913</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>192.2668392360827</v>
       </c>
-      <c r="J28" t="n">
-        <v>112.0165151440865</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>112.1038084270827</v>
-      </c>
       <c r="Q28" t="n">
-        <v>133.7641367861777</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="R28" t="n">
         <v>167.7671382542942</v>
@@ -29509,31 +29509,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="C29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="D29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="E29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="F29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="G29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="H29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="I29" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29542,43 +29542,43 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>99.47119109234134</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="N29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="O29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="P29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Q29" t="n">
-        <v>192.2668392360828</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="S29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="T29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="U29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="V29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="W29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="X29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Y29" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
     </row>
     <row r="30">
@@ -29591,10 +29591,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>192.2668392360828</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>192.2668392360828</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -29603,61 +29603,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>192.2668392360828</v>
+        <v>137.0908046064029</v>
       </c>
       <c r="H30" t="n">
-        <v>135.7813495795981</v>
+        <v>109.7947729641688</v>
       </c>
       <c r="I30" t="n">
-        <v>90.82153100464481</v>
+        <v>156.2832658123457</v>
       </c>
       <c r="J30" t="n">
-        <v>102.9618319903678</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>97.03390299193963</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="L30" t="n">
-        <v>83.6836116887839</v>
+        <v>83.68361168878386</v>
       </c>
       <c r="M30" t="n">
-        <v>78.10243564664644</v>
+        <v>78.1024356466464</v>
       </c>
       <c r="N30" t="n">
-        <v>65.6153879335795</v>
+        <v>65.61538793357946</v>
       </c>
       <c r="O30" t="n">
-        <v>82.46949852711541</v>
+        <v>82.46949852711535</v>
       </c>
       <c r="P30" t="n">
-        <v>85.71739294811695</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.7232378871913</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>129.9891576737413</v>
+        <v>106.4616065337527</v>
       </c>
       <c r="S30" t="n">
-        <v>192.2668392360828</v>
+        <v>166.9891461999742</v>
       </c>
       <c r="T30" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="U30" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="V30" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="W30" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="X30" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Y30" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
     </row>
     <row r="31">
@@ -29676,19 +29676,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>192.2668392360828</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>192.2668392360828</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="H31" t="n">
-        <v>192.2668392360828</v>
+        <v>160.343493665108</v>
       </c>
       <c r="I31" t="n">
-        <v>192.2668392360828</v>
+        <v>149.0790949574905</v>
       </c>
       <c r="J31" t="n">
         <v>112.0165151440865</v>
@@ -29700,43 +29700,43 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>172.7483897489456</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>112.1038084270827</v>
       </c>
       <c r="Q31" t="n">
-        <v>192.2668392360828</v>
+        <v>133.7641367861777</v>
       </c>
       <c r="R31" t="n">
-        <v>167.7671382542942</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="S31" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="T31" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="U31" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="V31" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="W31" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="X31" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
     </row>
     <row r="32">
@@ -29770,13 +29770,13 @@
         <v>192.2668392360827</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="K32" t="n">
-        <v>160.0091951480955</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="L32" t="n">
-        <v>192.2668392360827</v>
+        <v>20.64992976778372</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -29846,34 +29846,34 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I33" t="n">
-        <v>90.82153100464481</v>
+        <v>90.8215310046448</v>
       </c>
       <c r="J33" t="n">
-        <v>102.9618319903678</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>97.03390299193963</v>
+        <v>132.3233248971858</v>
       </c>
       <c r="L33" t="n">
-        <v>115.9095813776145</v>
+        <v>83.68361168878386</v>
       </c>
       <c r="M33" t="n">
-        <v>78.10243564664644</v>
+        <v>78.1024356466464</v>
       </c>
       <c r="N33" t="n">
-        <v>65.6153879335795</v>
+        <v>65.61538793357946</v>
       </c>
       <c r="O33" t="n">
-        <v>82.46949852711541</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="P33" t="n">
-        <v>85.71739294811695</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>107.7232378871913</v>
+        <v>107.7232378871912</v>
       </c>
       <c r="R33" t="n">
-        <v>129.9891576737413</v>
+        <v>84.46748786242043</v>
       </c>
       <c r="S33" t="n">
         <v>166.9891461999742</v>
@@ -29907,32 +29907,32 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="D34" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="F34" t="n">
         <v>192.2668392360827</v>
       </c>
       <c r="G34" t="n">
+        <v>167.7791136399961</v>
+      </c>
+      <c r="H34" t="n">
+        <v>160.343493665108</v>
+      </c>
+      <c r="I34" t="n">
+        <v>149.0790949574905</v>
+      </c>
+      <c r="J34" t="n">
+        <v>112.0165151440865</v>
+      </c>
+      <c r="K34" t="n">
         <v>192.2668392360827</v>
       </c>
-      <c r="H34" t="n">
-        <v>192.2668392360827</v>
-      </c>
-      <c r="I34" t="n">
-        <v>192.2668392360827</v>
-      </c>
-      <c r="J34" t="n">
-        <v>192.2668392360827</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
@@ -29949,10 +29949,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.7641367861777</v>
+        <v>68.4211784084262</v>
       </c>
       <c r="R34" t="n">
-        <v>192.2668392360827</v>
+        <v>167.7671382542942</v>
       </c>
       <c r="S34" t="n">
         <v>192.2668392360827</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="C35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="D35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="E35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="F35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="G35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="H35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="I35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="J35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="K35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="L35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="M35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="N35" t="n">
-        <v>145.1361328196213</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="O35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="P35" t="n">
-        <v>158.7006023687775</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="R35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="S35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="T35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="U35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="V35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="W35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="X35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="Y35" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
     </row>
     <row r="36">
@@ -30065,13 +30065,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>182.007918735092</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>180.4587143520423</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -30083,34 +30083,34 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I36" t="n">
-        <v>90.82153100464481</v>
+        <v>80.69578385605988</v>
       </c>
       <c r="J36" t="n">
-        <v>102.9618319903678</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>97.03390299193963</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>83.6836116887839</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>78.10243564664644</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>65.6153879335795</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>82.46949852711541</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>85.71739294811695</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>107.7232378871913</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>129.9891576737413</v>
+        <v>84.46748786242043</v>
       </c>
       <c r="S36" t="n">
         <v>166.9891461999742</v>
@@ -30119,19 +30119,19 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U36" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="V36" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="W36" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="X36" t="n">
-        <v>222.6873267611513</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>222.6873267611513</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30144,19 +30144,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>199.5996312467371</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>222.6873267611513</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>222.6873267611513</v>
+        <v>167.7791136399961</v>
       </c>
       <c r="H37" t="n">
         <v>160.343493665108</v>
@@ -30168,16 +30168,16 @@
         <v>112.0165151440865</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>104.3983137891471</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>105.7148695525911</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>95.26431138448913</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.7641367861777</v>
+        <v>160.7557056505684</v>
       </c>
       <c r="R37" t="n">
         <v>167.7671382542942</v>
@@ -30195,22 +30195,22 @@
         <v>220.324356379764</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="U37" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="V37" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="W37" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="X37" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.6873267611513</v>
+        <v>222.6873267611514</v>
       </c>
     </row>
     <row r="38">
@@ -30241,22 +30241,22 @@
         <v>222.6873267611514</v>
       </c>
       <c r="I38" t="n">
+        <v>192.2668392360827</v>
+      </c>
+      <c r="J38" t="n">
+        <v>103.7910567943971</v>
+      </c>
+      <c r="K38" t="n">
         <v>222.6873267611514</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>222.6873267611514</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>114.0746424964673</v>
       </c>
       <c r="M38" t="n">
         <v>222.6873267611514</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="O38" t="n">
         <v>222.6873267611514</v>
@@ -30265,7 +30265,7 @@
         <v>222.6873267611514</v>
       </c>
       <c r="Q38" t="n">
-        <v>222.6873267611514</v>
+        <v>171.3006296503228</v>
       </c>
       <c r="R38" t="n">
         <v>222.6873267611514</v>
@@ -30274,7 +30274,7 @@
         <v>222.6873267611514</v>
       </c>
       <c r="T38" t="n">
-        <v>222.6873267611514</v>
+        <v>221.0282763110739</v>
       </c>
       <c r="U38" t="n">
         <v>222.6873267611514</v>
@@ -30302,7 +30302,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>215.9268912766126</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -30320,34 +30320,34 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I39" t="n">
-        <v>90.82153100464481</v>
+        <v>80.69578385605988</v>
       </c>
       <c r="J39" t="n">
         <v>102.9618319903678</v>
       </c>
       <c r="K39" t="n">
-        <v>97.03390299193963</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>83.6836116887839</v>
+        <v>83.68361168878386</v>
       </c>
       <c r="M39" t="n">
-        <v>78.10243564664644</v>
+        <v>78.1024356466464</v>
       </c>
       <c r="N39" t="n">
-        <v>65.6153879335795</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>82.46949852711541</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>85.71739294811695</v>
+        <v>85.71739294811692</v>
       </c>
       <c r="Q39" t="n">
-        <v>107.7232378871913</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>129.9891576737413</v>
+        <v>173.2075499620382</v>
       </c>
       <c r="S39" t="n">
         <v>166.9891461999742</v>
@@ -30387,13 +30387,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
+        <v>146.4339626465692</v>
+      </c>
+      <c r="F40" t="n">
         <v>222.6873267611514</v>
       </c>
-      <c r="F40" t="n">
-        <v>181.8645561943948</v>
-      </c>
       <c r="G40" t="n">
-        <v>167.7791136399961</v>
+        <v>222.6873267611514</v>
       </c>
       <c r="H40" t="n">
         <v>160.343493665108</v>
@@ -30408,28 +30408,28 @@
         <v>104.3983137891471</v>
       </c>
       <c r="L40" t="n">
-        <v>103.3860221017998</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>105.7148695525912</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>95.26431138448916</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>108.5102821731398</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>112.1038084270827</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>133.7641367861777</v>
       </c>
       <c r="R40" t="n">
+        <v>196.744063397378</v>
+      </c>
+      <c r="S40" t="n">
         <v>222.6873267611514</v>
-      </c>
-      <c r="S40" t="n">
-        <v>220.324356379764</v>
       </c>
       <c r="T40" t="n">
         <v>222.6873267611514</v>
@@ -30447,7 +30447,7 @@
         <v>222.6873267611514</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>222.6873267611514</v>
       </c>
     </row>
     <row r="41">
@@ -30478,40 +30478,40 @@
         <v>222.6873267611513</v>
       </c>
       <c r="I41" t="n">
-        <v>222.6873267611513</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="J41" t="n">
         <v>222.6873267611513</v>
       </c>
       <c r="K41" t="n">
-        <v>199.8300679714094</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="L41" t="n">
-        <v>161.2310486348934</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="M41" t="n">
         <v>222.6873267611513</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="O41" t="n">
-        <v>150.5178955013912</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="P41" t="n">
-        <v>222.6873267611513</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>222.6873267611513</v>
       </c>
       <c r="R41" t="n">
-        <v>222.6873267611513</v>
+        <v>120.1998550382659</v>
       </c>
       <c r="S41" t="n">
         <v>222.6873267611513</v>
       </c>
       <c r="T41" t="n">
-        <v>221.0282763110739</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="U41" t="n">
         <v>222.6873267611513</v>
@@ -30557,37 +30557,37 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I42" t="n">
-        <v>90.82153100464481</v>
+        <v>90.8215310046448</v>
       </c>
       <c r="J42" t="n">
         <v>102.9618319903678</v>
       </c>
       <c r="K42" t="n">
-        <v>97.03390299193963</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>83.6836116887839</v>
+        <v>83.68361168878386</v>
       </c>
       <c r="M42" t="n">
-        <v>78.10243564664644</v>
+        <v>78.1024356466464</v>
       </c>
       <c r="N42" t="n">
-        <v>65.6153879335795</v>
+        <v>65.61538793357946</v>
       </c>
       <c r="O42" t="n">
-        <v>82.46949852711541</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>85.71739294811695</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>107.7232378871913</v>
+        <v>107.7232378871912</v>
       </c>
       <c r="R42" t="n">
         <v>129.9891576737413</v>
       </c>
       <c r="S42" t="n">
-        <v>210.2075384882713</v>
+        <v>166.9891461999742</v>
       </c>
       <c r="T42" t="n">
         <v>199.1461197487412</v>
@@ -30630,40 +30630,40 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7791136399961</v>
+        <v>218.1321528299993</v>
       </c>
       <c r="H43" t="n">
-        <v>160.343493665108</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="I43" t="n">
         <v>149.0790949574905</v>
       </c>
       <c r="J43" t="n">
-        <v>112.0165151440865</v>
+        <v>78.38027382136318</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>104.3983137891471</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>105.7148695525911</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>95.26431138448913</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>29.05544836722784</v>
       </c>
       <c r="P43" t="n">
-        <v>222.6873267611513</v>
+        <v>112.1038084270827</v>
       </c>
       <c r="Q43" t="n">
         <v>133.7641367861777</v>
       </c>
       <c r="R43" t="n">
-        <v>167.7671382542942</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="S43" t="n">
         <v>220.324356379764</v>
@@ -30733,7 +30733,7 @@
         <v>222.6873267611513</v>
       </c>
       <c r="O44" t="n">
-        <v>160.0770790909811</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>222.6873267611513</v>
@@ -30794,31 +30794,31 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I45" t="n">
-        <v>90.82153100464481</v>
+        <v>90.8215310046448</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>102.9618319903678</v>
       </c>
       <c r="K45" t="n">
-        <v>97.03390299193963</v>
+        <v>5.572542996711216</v>
       </c>
       <c r="L45" t="n">
-        <v>83.6836116887839</v>
+        <v>83.68361168878386</v>
       </c>
       <c r="M45" t="n">
-        <v>78.10243564664644</v>
+        <v>78.1024356466464</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>108.8337802218767</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>82.46949852711535</v>
       </c>
       <c r="P45" t="n">
-        <v>85.71739294811695</v>
+        <v>85.71739294811692</v>
       </c>
       <c r="Q45" t="n">
-        <v>107.7232378871913</v>
+        <v>107.7232378871912</v>
       </c>
       <c r="R45" t="n">
         <v>129.9891576737413</v>
@@ -30827,7 +30827,7 @@
         <v>166.9891461999742</v>
       </c>
       <c r="T45" t="n">
-        <v>222.6873267611513</v>
+        <v>199.1461197487412</v>
       </c>
       <c r="U45" t="n">
         <v>222.6873267611513</v>
@@ -30864,13 +30864,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>195.7860625986359</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>222.6873267611513</v>
+        <v>167.7791136399961</v>
       </c>
       <c r="H46" t="n">
-        <v>222.6873267611513</v>
+        <v>160.343493665108</v>
       </c>
       <c r="I46" t="n">
         <v>149.0790949574905</v>
@@ -30879,19 +30879,19 @@
         <v>112.0165151440865</v>
       </c>
       <c r="K46" t="n">
-        <v>104.3983137891471</v>
+        <v>155.0429173734905</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>222.6873267611513</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>108.5102821731397</v>
       </c>
       <c r="P46" t="n">
         <v>112.1038084270827</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4723182759697337</v>
+        <v>0.472318275969734</v>
       </c>
       <c r="H11" t="n">
-        <v>4.837129543775037</v>
+        <v>4.837129543775039</v>
       </c>
       <c r="I11" t="n">
-        <v>18.20905033432318</v>
+        <v>18.20905033432319</v>
       </c>
       <c r="J11" t="n">
-        <v>40.08742327508622</v>
+        <v>40.08742327508625</v>
       </c>
       <c r="K11" t="n">
-        <v>60.08065589688506</v>
+        <v>60.0806558968851</v>
       </c>
       <c r="L11" t="n">
-        <v>74.53536633509381</v>
+        <v>74.53536633509387</v>
       </c>
       <c r="M11" t="n">
-        <v>82.93495647537057</v>
+        <v>82.93495647537061</v>
       </c>
       <c r="N11" t="n">
-        <v>84.27693077696958</v>
+        <v>84.27693077696964</v>
       </c>
       <c r="O11" t="n">
-        <v>79.58031592029553</v>
+        <v>79.58031592029559</v>
       </c>
       <c r="P11" t="n">
-        <v>67.91995848229273</v>
+        <v>67.91995848229277</v>
       </c>
       <c r="Q11" t="n">
-        <v>51.00506022412662</v>
+        <v>51.00506022412665</v>
       </c>
       <c r="R11" t="n">
-        <v>29.66926290288381</v>
+        <v>29.66926290288383</v>
       </c>
       <c r="S11" t="n">
         <v>10.76295271366032</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06757325305751</v>
+        <v>2.067573253057512</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03778546207757869</v>
+        <v>0.03778546207757871</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2527125568077686</v>
+        <v>0.2527125568077687</v>
       </c>
       <c r="H12" t="n">
-        <v>2.44067127232766</v>
+        <v>2.440671272327661</v>
       </c>
       <c r="I12" t="n">
-        <v>8.700848995355191</v>
+        <v>8.700848995355196</v>
       </c>
       <c r="J12" t="n">
-        <v>23.87579467629888</v>
+        <v>23.87579467629889</v>
       </c>
       <c r="K12" t="n">
-        <v>40.80753598241937</v>
+        <v>40.8075359824194</v>
       </c>
       <c r="L12" t="n">
-        <v>54.87076809109028</v>
+        <v>54.87076809109032</v>
       </c>
       <c r="M12" t="n">
-        <v>64.03159827537188</v>
+        <v>64.03159827537192</v>
       </c>
       <c r="N12" t="n">
-        <v>65.72632414975381</v>
+        <v>65.72632414975385</v>
       </c>
       <c r="O12" t="n">
-        <v>60.12674591732904</v>
+        <v>60.12674591732908</v>
       </c>
       <c r="P12" t="n">
-        <v>48.25701446621328</v>
+        <v>48.25701446621331</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.25853619883025</v>
+        <v>32.25853619883027</v>
       </c>
       <c r="R12" t="n">
-        <v>15.69034629022269</v>
+        <v>15.6903462902227</v>
       </c>
       <c r="S12" t="n">
-        <v>4.694024903863593</v>
+        <v>4.694024903863596</v>
       </c>
       <c r="T12" t="n">
-        <v>1.018608946080435</v>
+        <v>1.018608946080436</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01662582610577425</v>
+        <v>0.01662582610577426</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2118657184626532</v>
+        <v>0.2118657184626534</v>
       </c>
       <c r="H13" t="n">
-        <v>1.883678842331591</v>
+        <v>1.883678842331592</v>
       </c>
       <c r="I13" t="n">
-        <v>6.371379969767792</v>
+        <v>6.371379969767796</v>
       </c>
       <c r="J13" t="n">
-        <v>14.97890629530958</v>
+        <v>14.97890629530959</v>
       </c>
       <c r="K13" t="n">
-        <v>24.61494438138825</v>
+        <v>24.61494438138827</v>
       </c>
       <c r="L13" t="n">
-        <v>31.49865417943847</v>
+        <v>31.49865417943849</v>
       </c>
       <c r="M13" t="n">
-        <v>33.2109143950139</v>
+        <v>33.21091439501392</v>
       </c>
       <c r="N13" t="n">
-        <v>32.42123308074404</v>
+        <v>32.42123308074406</v>
       </c>
       <c r="O13" t="n">
-        <v>29.94625627870304</v>
+        <v>29.94625627870305</v>
       </c>
       <c r="P13" t="n">
-        <v>25.62419562206489</v>
+        <v>25.6241956220649</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.74086484326817</v>
+        <v>17.74086484326818</v>
       </c>
       <c r="R13" t="n">
-        <v>9.526253122875296</v>
+        <v>9.526253122875303</v>
       </c>
       <c r="S13" t="n">
-        <v>3.692241657208237</v>
+        <v>3.692241657208239</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9052444334313363</v>
+        <v>0.9052444334313369</v>
       </c>
       <c r="U13" t="n">
         <v>0.01155631191614474</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4723182759697337</v>
+        <v>0.472318275969734</v>
       </c>
       <c r="H14" t="n">
-        <v>4.837129543775037</v>
+        <v>4.837129543775039</v>
       </c>
       <c r="I14" t="n">
-        <v>18.20905033432318</v>
+        <v>18.20905033432319</v>
       </c>
       <c r="J14" t="n">
-        <v>40.08742327508622</v>
+        <v>40.08742327508625</v>
       </c>
       <c r="K14" t="n">
-        <v>60.08065589688506</v>
+        <v>60.0806558968851</v>
       </c>
       <c r="L14" t="n">
-        <v>74.53536633509381</v>
+        <v>74.53536633509387</v>
       </c>
       <c r="M14" t="n">
-        <v>82.93495647537057</v>
+        <v>82.93495647537061</v>
       </c>
       <c r="N14" t="n">
-        <v>84.27693077696958</v>
+        <v>84.27693077696964</v>
       </c>
       <c r="O14" t="n">
-        <v>79.58031592029553</v>
+        <v>79.58031592029559</v>
       </c>
       <c r="P14" t="n">
-        <v>67.91995848229273</v>
+        <v>67.91995848229277</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.00506022412662</v>
+        <v>51.00506022412665</v>
       </c>
       <c r="R14" t="n">
-        <v>29.66926290288381</v>
+        <v>29.66926290288383</v>
       </c>
       <c r="S14" t="n">
         <v>10.76295271366032</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06757325305751</v>
+        <v>2.067573253057512</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03778546207757869</v>
+        <v>0.03778546207757871</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2527125568077686</v>
+        <v>0.2527125568077687</v>
       </c>
       <c r="H15" t="n">
-        <v>2.44067127232766</v>
+        <v>2.440671272327661</v>
       </c>
       <c r="I15" t="n">
-        <v>8.700848995355191</v>
+        <v>8.700848995355196</v>
       </c>
       <c r="J15" t="n">
-        <v>23.87579467629888</v>
+        <v>23.87579467629889</v>
       </c>
       <c r="K15" t="n">
-        <v>40.80753598241937</v>
+        <v>40.8075359824194</v>
       </c>
       <c r="L15" t="n">
-        <v>54.87076809109028</v>
+        <v>54.87076809109032</v>
       </c>
       <c r="M15" t="n">
-        <v>64.03159827537188</v>
+        <v>64.03159827537192</v>
       </c>
       <c r="N15" t="n">
-        <v>65.72632414975381</v>
+        <v>65.72632414975385</v>
       </c>
       <c r="O15" t="n">
-        <v>60.12674591732904</v>
+        <v>60.12674591732908</v>
       </c>
       <c r="P15" t="n">
-        <v>48.25701446621328</v>
+        <v>48.25701446621331</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.25853619883025</v>
+        <v>32.25853619883027</v>
       </c>
       <c r="R15" t="n">
-        <v>15.69034629022269</v>
+        <v>15.6903462902227</v>
       </c>
       <c r="S15" t="n">
-        <v>4.694024903863593</v>
+        <v>4.694024903863596</v>
       </c>
       <c r="T15" t="n">
-        <v>1.018608946080435</v>
+        <v>1.018608946080436</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01662582610577425</v>
+        <v>0.01662582610577426</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2118657184626532</v>
+        <v>0.2118657184626534</v>
       </c>
       <c r="H16" t="n">
-        <v>1.883678842331591</v>
+        <v>1.883678842331592</v>
       </c>
       <c r="I16" t="n">
-        <v>6.371379969767792</v>
+        <v>6.371379969767796</v>
       </c>
       <c r="J16" t="n">
-        <v>14.97890629530958</v>
+        <v>14.97890629530959</v>
       </c>
       <c r="K16" t="n">
-        <v>24.61494438138825</v>
+        <v>24.61494438138827</v>
       </c>
       <c r="L16" t="n">
-        <v>31.49865417943847</v>
+        <v>31.49865417943849</v>
       </c>
       <c r="M16" t="n">
-        <v>33.2109143950139</v>
+        <v>33.21091439501392</v>
       </c>
       <c r="N16" t="n">
-        <v>32.42123308074404</v>
+        <v>32.42123308074406</v>
       </c>
       <c r="O16" t="n">
-        <v>29.94625627870304</v>
+        <v>29.94625627870305</v>
       </c>
       <c r="P16" t="n">
-        <v>25.62419562206489</v>
+        <v>25.6241956220649</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.74086484326817</v>
+        <v>17.74086484326818</v>
       </c>
       <c r="R16" t="n">
-        <v>9.526253122875296</v>
+        <v>9.526253122875303</v>
       </c>
       <c r="S16" t="n">
-        <v>3.692241657208237</v>
+        <v>3.692241657208239</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9052444334313363</v>
+        <v>0.9052444334313369</v>
       </c>
       <c r="U16" t="n">
         <v>0.01155631191614474</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4723182759697337</v>
+        <v>0.472318275969734</v>
       </c>
       <c r="H17" t="n">
-        <v>4.837129543775037</v>
+        <v>4.837129543775039</v>
       </c>
       <c r="I17" t="n">
-        <v>18.20905033432318</v>
+        <v>18.20905033432319</v>
       </c>
       <c r="J17" t="n">
-        <v>40.08742327508622</v>
+        <v>40.08742327508625</v>
       </c>
       <c r="K17" t="n">
-        <v>60.08065589688506</v>
+        <v>60.0806558968851</v>
       </c>
       <c r="L17" t="n">
-        <v>74.53536633509381</v>
+        <v>74.53536633509387</v>
       </c>
       <c r="M17" t="n">
-        <v>82.93495647537057</v>
+        <v>82.93495647537061</v>
       </c>
       <c r="N17" t="n">
-        <v>84.27693077696958</v>
+        <v>84.27693077696964</v>
       </c>
       <c r="O17" t="n">
-        <v>79.58031592029553</v>
+        <v>79.58031592029559</v>
       </c>
       <c r="P17" t="n">
-        <v>67.91995848229273</v>
+        <v>67.91995848229277</v>
       </c>
       <c r="Q17" t="n">
-        <v>51.00506022412662</v>
+        <v>51.00506022412665</v>
       </c>
       <c r="R17" t="n">
-        <v>29.66926290288381</v>
+        <v>29.66926290288383</v>
       </c>
       <c r="S17" t="n">
         <v>10.76295271366032</v>
       </c>
       <c r="T17" t="n">
-        <v>2.06757325305751</v>
+        <v>2.067573253057512</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03778546207757869</v>
+        <v>0.03778546207757871</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2527125568077686</v>
+        <v>0.2527125568077687</v>
       </c>
       <c r="H18" t="n">
-        <v>2.44067127232766</v>
+        <v>2.440671272327661</v>
       </c>
       <c r="I18" t="n">
-        <v>8.700848995355191</v>
+        <v>8.700848995355196</v>
       </c>
       <c r="J18" t="n">
-        <v>23.87579467629888</v>
+        <v>23.87579467629889</v>
       </c>
       <c r="K18" t="n">
-        <v>40.80753598241937</v>
+        <v>40.8075359824194</v>
       </c>
       <c r="L18" t="n">
-        <v>54.87076809109028</v>
+        <v>54.87076809109032</v>
       </c>
       <c r="M18" t="n">
-        <v>64.03159827537188</v>
+        <v>64.03159827537192</v>
       </c>
       <c r="N18" t="n">
-        <v>65.72632414975381</v>
+        <v>65.72632414975385</v>
       </c>
       <c r="O18" t="n">
-        <v>60.12674591732904</v>
+        <v>60.12674591732908</v>
       </c>
       <c r="P18" t="n">
-        <v>48.25701446621328</v>
+        <v>48.25701446621331</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.25853619883025</v>
+        <v>32.25853619883027</v>
       </c>
       <c r="R18" t="n">
-        <v>15.69034629022269</v>
+        <v>15.6903462902227</v>
       </c>
       <c r="S18" t="n">
-        <v>4.694024903863593</v>
+        <v>4.694024903863596</v>
       </c>
       <c r="T18" t="n">
-        <v>1.018608946080435</v>
+        <v>1.018608946080436</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01662582610577425</v>
+        <v>0.01662582610577426</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2118657184626532</v>
+        <v>0.2118657184626534</v>
       </c>
       <c r="H19" t="n">
-        <v>1.883678842331591</v>
+        <v>1.883678842331592</v>
       </c>
       <c r="I19" t="n">
-        <v>6.371379969767792</v>
+        <v>6.371379969767796</v>
       </c>
       <c r="J19" t="n">
-        <v>14.97890629530958</v>
+        <v>14.97890629530959</v>
       </c>
       <c r="K19" t="n">
-        <v>24.61494438138825</v>
+        <v>24.61494438138827</v>
       </c>
       <c r="L19" t="n">
-        <v>31.49865417943847</v>
+        <v>31.49865417943849</v>
       </c>
       <c r="M19" t="n">
-        <v>33.2109143950139</v>
+        <v>33.21091439501392</v>
       </c>
       <c r="N19" t="n">
-        <v>32.42123308074404</v>
+        <v>32.42123308074406</v>
       </c>
       <c r="O19" t="n">
-        <v>29.94625627870304</v>
+        <v>29.94625627870305</v>
       </c>
       <c r="P19" t="n">
-        <v>25.62419562206489</v>
+        <v>25.6241956220649</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.74086484326817</v>
+        <v>17.74086484326818</v>
       </c>
       <c r="R19" t="n">
-        <v>9.526253122875296</v>
+        <v>9.526253122875303</v>
       </c>
       <c r="S19" t="n">
-        <v>3.692241657208237</v>
+        <v>3.692241657208239</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9052444334313363</v>
+        <v>0.9052444334313369</v>
       </c>
       <c r="U19" t="n">
         <v>0.01155631191614474</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4723182759697337</v>
+        <v>0.472318275969734</v>
       </c>
       <c r="H20" t="n">
-        <v>4.837129543775037</v>
+        <v>4.837129543775039</v>
       </c>
       <c r="I20" t="n">
-        <v>18.20905033432318</v>
+        <v>18.20905033432319</v>
       </c>
       <c r="J20" t="n">
-        <v>40.08742327508622</v>
+        <v>40.08742327508625</v>
       </c>
       <c r="K20" t="n">
-        <v>60.08065589688506</v>
+        <v>60.0806558968851</v>
       </c>
       <c r="L20" t="n">
-        <v>74.53536633509381</v>
+        <v>74.53536633509387</v>
       </c>
       <c r="M20" t="n">
-        <v>82.93495647537057</v>
+        <v>82.93495647537061</v>
       </c>
       <c r="N20" t="n">
-        <v>84.27693077696958</v>
+        <v>84.27693077696964</v>
       </c>
       <c r="O20" t="n">
-        <v>79.58031592029553</v>
+        <v>79.58031592029559</v>
       </c>
       <c r="P20" t="n">
-        <v>67.91995848229273</v>
+        <v>67.91995848229277</v>
       </c>
       <c r="Q20" t="n">
-        <v>51.00506022412662</v>
+        <v>51.00506022412665</v>
       </c>
       <c r="R20" t="n">
-        <v>29.66926290288381</v>
+        <v>29.66926290288383</v>
       </c>
       <c r="S20" t="n">
         <v>10.76295271366032</v>
       </c>
       <c r="T20" t="n">
-        <v>2.06757325305751</v>
+        <v>2.067573253057512</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03778546207757869</v>
+        <v>0.03778546207757871</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2527125568077686</v>
+        <v>0.2527125568077687</v>
       </c>
       <c r="H21" t="n">
-        <v>2.44067127232766</v>
+        <v>2.440671272327661</v>
       </c>
       <c r="I21" t="n">
-        <v>8.700848995355191</v>
+        <v>8.700848995355196</v>
       </c>
       <c r="J21" t="n">
-        <v>23.87579467629888</v>
+        <v>23.87579467629889</v>
       </c>
       <c r="K21" t="n">
-        <v>40.80753598241937</v>
+        <v>40.8075359824194</v>
       </c>
       <c r="L21" t="n">
-        <v>54.87076809109028</v>
+        <v>54.87076809109032</v>
       </c>
       <c r="M21" t="n">
-        <v>64.03159827537188</v>
+        <v>64.03159827537192</v>
       </c>
       <c r="N21" t="n">
-        <v>65.72632414975381</v>
+        <v>65.72632414975385</v>
       </c>
       <c r="O21" t="n">
-        <v>60.12674591732904</v>
+        <v>60.12674591732908</v>
       </c>
       <c r="P21" t="n">
-        <v>48.25701446621328</v>
+        <v>48.25701446621331</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.25853619883025</v>
+        <v>32.25853619883027</v>
       </c>
       <c r="R21" t="n">
-        <v>15.69034629022269</v>
+        <v>15.6903462902227</v>
       </c>
       <c r="S21" t="n">
-        <v>4.694024903863593</v>
+        <v>4.694024903863596</v>
       </c>
       <c r="T21" t="n">
-        <v>1.018608946080435</v>
+        <v>1.018608946080436</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01662582610577425</v>
+        <v>0.01662582610577426</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2118657184626532</v>
+        <v>0.2118657184626534</v>
       </c>
       <c r="H22" t="n">
-        <v>1.883678842331591</v>
+        <v>1.883678842331592</v>
       </c>
       <c r="I22" t="n">
-        <v>6.371379969767792</v>
+        <v>6.371379969767796</v>
       </c>
       <c r="J22" t="n">
-        <v>14.97890629530958</v>
+        <v>14.97890629530959</v>
       </c>
       <c r="K22" t="n">
-        <v>24.61494438138825</v>
+        <v>24.61494438138827</v>
       </c>
       <c r="L22" t="n">
-        <v>31.49865417943847</v>
+        <v>31.49865417943849</v>
       </c>
       <c r="M22" t="n">
-        <v>33.2109143950139</v>
+        <v>33.21091439501392</v>
       </c>
       <c r="N22" t="n">
-        <v>32.42123308074404</v>
+        <v>32.42123308074406</v>
       </c>
       <c r="O22" t="n">
-        <v>29.94625627870304</v>
+        <v>29.94625627870305</v>
       </c>
       <c r="P22" t="n">
-        <v>25.62419562206489</v>
+        <v>25.6241956220649</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.74086484326817</v>
+        <v>17.74086484326818</v>
       </c>
       <c r="R22" t="n">
-        <v>9.526253122875296</v>
+        <v>9.526253122875303</v>
       </c>
       <c r="S22" t="n">
-        <v>3.692241657208237</v>
+        <v>3.692241657208239</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9052444334313363</v>
+        <v>0.9052444334313369</v>
       </c>
       <c r="U22" t="n">
         <v>0.01155631191614474</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4723182759697337</v>
+        <v>0.472318275969734</v>
       </c>
       <c r="H23" t="n">
-        <v>4.837129543775037</v>
+        <v>4.837129543775039</v>
       </c>
       <c r="I23" t="n">
-        <v>18.20905033432318</v>
+        <v>18.20905033432319</v>
       </c>
       <c r="J23" t="n">
-        <v>40.08742327508622</v>
+        <v>40.08742327508625</v>
       </c>
       <c r="K23" t="n">
-        <v>60.08065589688506</v>
+        <v>60.0806558968851</v>
       </c>
       <c r="L23" t="n">
-        <v>74.53536633509381</v>
+        <v>74.53536633509387</v>
       </c>
       <c r="M23" t="n">
-        <v>82.93495647537057</v>
+        <v>82.93495647537061</v>
       </c>
       <c r="N23" t="n">
-        <v>84.27693077696958</v>
+        <v>84.27693077696964</v>
       </c>
       <c r="O23" t="n">
-        <v>79.58031592029553</v>
+        <v>79.58031592029559</v>
       </c>
       <c r="P23" t="n">
-        <v>67.91995848229273</v>
+        <v>67.91995848229277</v>
       </c>
       <c r="Q23" t="n">
-        <v>51.00506022412662</v>
+        <v>51.00506022412665</v>
       </c>
       <c r="R23" t="n">
-        <v>29.66926290288381</v>
+        <v>29.66926290288383</v>
       </c>
       <c r="S23" t="n">
         <v>10.76295271366032</v>
       </c>
       <c r="T23" t="n">
-        <v>2.06757325305751</v>
+        <v>2.067573253057512</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03778546207757869</v>
+        <v>0.03778546207757871</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2527125568077686</v>
+        <v>0.2527125568077687</v>
       </c>
       <c r="H24" t="n">
-        <v>2.44067127232766</v>
+        <v>2.440671272327661</v>
       </c>
       <c r="I24" t="n">
-        <v>8.700848995355191</v>
+        <v>8.700848995355196</v>
       </c>
       <c r="J24" t="n">
-        <v>23.87579467629888</v>
+        <v>23.87579467629889</v>
       </c>
       <c r="K24" t="n">
-        <v>40.80753598241937</v>
+        <v>40.8075359824194</v>
       </c>
       <c r="L24" t="n">
-        <v>54.87076809109028</v>
+        <v>54.87076809109032</v>
       </c>
       <c r="M24" t="n">
-        <v>64.03159827537188</v>
+        <v>64.03159827537192</v>
       </c>
       <c r="N24" t="n">
-        <v>65.72632414975381</v>
+        <v>65.72632414975385</v>
       </c>
       <c r="O24" t="n">
-        <v>60.12674591732904</v>
+        <v>60.12674591732908</v>
       </c>
       <c r="P24" t="n">
-        <v>48.25701446621328</v>
+        <v>48.25701446621331</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.25853619883025</v>
+        <v>32.25853619883027</v>
       </c>
       <c r="R24" t="n">
-        <v>15.69034629022269</v>
+        <v>15.6903462902227</v>
       </c>
       <c r="S24" t="n">
-        <v>4.694024903863593</v>
+        <v>4.694024903863596</v>
       </c>
       <c r="T24" t="n">
-        <v>1.018608946080435</v>
+        <v>1.018608946080436</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01662582610577425</v>
+        <v>0.01662582610577426</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2118657184626532</v>
+        <v>0.2118657184626534</v>
       </c>
       <c r="H25" t="n">
-        <v>1.883678842331591</v>
+        <v>1.883678842331592</v>
       </c>
       <c r="I25" t="n">
-        <v>6.371379969767792</v>
+        <v>6.371379969767796</v>
       </c>
       <c r="J25" t="n">
-        <v>14.97890629530958</v>
+        <v>14.97890629530959</v>
       </c>
       <c r="K25" t="n">
-        <v>24.61494438138825</v>
+        <v>24.61494438138827</v>
       </c>
       <c r="L25" t="n">
-        <v>31.49865417943847</v>
+        <v>31.49865417943849</v>
       </c>
       <c r="M25" t="n">
-        <v>33.2109143950139</v>
+        <v>33.21091439501392</v>
       </c>
       <c r="N25" t="n">
-        <v>32.42123308074404</v>
+        <v>32.42123308074406</v>
       </c>
       <c r="O25" t="n">
-        <v>29.94625627870304</v>
+        <v>29.94625627870305</v>
       </c>
       <c r="P25" t="n">
-        <v>25.62419562206489</v>
+        <v>25.6241956220649</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.74086484326817</v>
+        <v>17.74086484326818</v>
       </c>
       <c r="R25" t="n">
-        <v>9.526253122875296</v>
+        <v>9.526253122875303</v>
       </c>
       <c r="S25" t="n">
-        <v>3.692241657208237</v>
+        <v>3.692241657208239</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9052444334313363</v>
+        <v>0.9052444334313369</v>
       </c>
       <c r="U25" t="n">
         <v>0.01155631191614474</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4723182759697337</v>
+        <v>0.472318275969734</v>
       </c>
       <c r="H26" t="n">
-        <v>4.837129543775037</v>
+        <v>4.837129543775039</v>
       </c>
       <c r="I26" t="n">
-        <v>18.20905033432318</v>
+        <v>18.20905033432319</v>
       </c>
       <c r="J26" t="n">
-        <v>40.08742327508622</v>
+        <v>40.08742327508625</v>
       </c>
       <c r="K26" t="n">
-        <v>60.08065589688506</v>
+        <v>60.0806558968851</v>
       </c>
       <c r="L26" t="n">
-        <v>74.53536633509381</v>
+        <v>74.53536633509387</v>
       </c>
       <c r="M26" t="n">
-        <v>82.93495647537057</v>
+        <v>82.93495647537061</v>
       </c>
       <c r="N26" t="n">
-        <v>84.27693077696958</v>
+        <v>84.27693077696964</v>
       </c>
       <c r="O26" t="n">
-        <v>79.58031592029553</v>
+        <v>79.58031592029559</v>
       </c>
       <c r="P26" t="n">
-        <v>67.91995848229273</v>
+        <v>67.91995848229277</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.00506022412662</v>
+        <v>51.00506022412665</v>
       </c>
       <c r="R26" t="n">
-        <v>29.66926290288381</v>
+        <v>29.66926290288383</v>
       </c>
       <c r="S26" t="n">
         <v>10.76295271366032</v>
       </c>
       <c r="T26" t="n">
-        <v>2.06757325305751</v>
+        <v>2.067573253057512</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03778546207757869</v>
+        <v>0.03778546207757871</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2527125568077686</v>
+        <v>0.2527125568077687</v>
       </c>
       <c r="H27" t="n">
-        <v>2.44067127232766</v>
+        <v>2.440671272327661</v>
       </c>
       <c r="I27" t="n">
-        <v>8.700848995355191</v>
+        <v>8.700848995355196</v>
       </c>
       <c r="J27" t="n">
-        <v>23.87579467629888</v>
+        <v>23.87579467629889</v>
       </c>
       <c r="K27" t="n">
-        <v>40.80753598241937</v>
+        <v>40.8075359824194</v>
       </c>
       <c r="L27" t="n">
-        <v>54.87076809109028</v>
+        <v>54.87076809109032</v>
       </c>
       <c r="M27" t="n">
-        <v>64.03159827537188</v>
+        <v>64.03159827537192</v>
       </c>
       <c r="N27" t="n">
-        <v>65.72632414975381</v>
+        <v>65.72632414975385</v>
       </c>
       <c r="O27" t="n">
-        <v>60.12674591732904</v>
+        <v>60.12674591732908</v>
       </c>
       <c r="P27" t="n">
-        <v>48.25701446621328</v>
+        <v>48.25701446621331</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.25853619883025</v>
+        <v>32.25853619883027</v>
       </c>
       <c r="R27" t="n">
-        <v>15.69034629022269</v>
+        <v>15.6903462902227</v>
       </c>
       <c r="S27" t="n">
-        <v>4.694024903863593</v>
+        <v>4.694024903863596</v>
       </c>
       <c r="T27" t="n">
-        <v>1.018608946080435</v>
+        <v>1.018608946080436</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01662582610577425</v>
+        <v>0.01662582610577426</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2118657184626532</v>
+        <v>0.2118657184626534</v>
       </c>
       <c r="H28" t="n">
-        <v>1.883678842331591</v>
+        <v>1.883678842331592</v>
       </c>
       <c r="I28" t="n">
-        <v>6.371379969767792</v>
+        <v>6.371379969767796</v>
       </c>
       <c r="J28" t="n">
-        <v>14.97890629530958</v>
+        <v>14.97890629530959</v>
       </c>
       <c r="K28" t="n">
-        <v>24.61494438138825</v>
+        <v>24.61494438138827</v>
       </c>
       <c r="L28" t="n">
-        <v>31.49865417943847</v>
+        <v>31.49865417943849</v>
       </c>
       <c r="M28" t="n">
-        <v>33.2109143950139</v>
+        <v>33.21091439501392</v>
       </c>
       <c r="N28" t="n">
-        <v>32.42123308074404</v>
+        <v>32.42123308074406</v>
       </c>
       <c r="O28" t="n">
-        <v>29.94625627870304</v>
+        <v>29.94625627870305</v>
       </c>
       <c r="P28" t="n">
-        <v>25.62419562206489</v>
+        <v>25.6241956220649</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.74086484326817</v>
+        <v>17.74086484326818</v>
       </c>
       <c r="R28" t="n">
-        <v>9.526253122875296</v>
+        <v>9.526253122875303</v>
       </c>
       <c r="S28" t="n">
-        <v>3.692241657208237</v>
+        <v>3.692241657208239</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9052444334313363</v>
+        <v>0.9052444334313369</v>
       </c>
       <c r="U28" t="n">
         <v>0.01155631191614474</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4723182759697337</v>
+        <v>0.472318275969734</v>
       </c>
       <c r="H29" t="n">
-        <v>4.837129543775037</v>
+        <v>4.837129543775039</v>
       </c>
       <c r="I29" t="n">
-        <v>18.20905033432318</v>
+        <v>18.20905033432319</v>
       </c>
       <c r="J29" t="n">
-        <v>40.08742327508622</v>
+        <v>40.08742327508625</v>
       </c>
       <c r="K29" t="n">
-        <v>60.08065589688506</v>
+        <v>60.0806558968851</v>
       </c>
       <c r="L29" t="n">
-        <v>74.53536633509381</v>
+        <v>74.53536633509387</v>
       </c>
       <c r="M29" t="n">
-        <v>82.93495647537057</v>
+        <v>82.93495647537061</v>
       </c>
       <c r="N29" t="n">
-        <v>84.27693077696958</v>
+        <v>84.27693077696964</v>
       </c>
       <c r="O29" t="n">
-        <v>79.58031592029553</v>
+        <v>79.58031592029559</v>
       </c>
       <c r="P29" t="n">
-        <v>67.91995848229273</v>
+        <v>67.91995848229277</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.00506022412662</v>
+        <v>51.00506022412665</v>
       </c>
       <c r="R29" t="n">
-        <v>29.66926290288381</v>
+        <v>29.66926290288383</v>
       </c>
       <c r="S29" t="n">
         <v>10.76295271366032</v>
       </c>
       <c r="T29" t="n">
-        <v>2.06757325305751</v>
+        <v>2.067573253057512</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03778546207757869</v>
+        <v>0.03778546207757871</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2527125568077686</v>
+        <v>0.2527125568077687</v>
       </c>
       <c r="H30" t="n">
-        <v>2.44067127232766</v>
+        <v>2.440671272327661</v>
       </c>
       <c r="I30" t="n">
-        <v>8.700848995355191</v>
+        <v>8.700848995355196</v>
       </c>
       <c r="J30" t="n">
-        <v>23.87579467629888</v>
+        <v>23.87579467629889</v>
       </c>
       <c r="K30" t="n">
-        <v>40.80753598241937</v>
+        <v>40.8075359824194</v>
       </c>
       <c r="L30" t="n">
-        <v>54.87076809109028</v>
+        <v>54.87076809109032</v>
       </c>
       <c r="M30" t="n">
-        <v>64.03159827537188</v>
+        <v>64.03159827537192</v>
       </c>
       <c r="N30" t="n">
-        <v>65.72632414975381</v>
+        <v>65.72632414975385</v>
       </c>
       <c r="O30" t="n">
-        <v>60.12674591732904</v>
+        <v>60.12674591732908</v>
       </c>
       <c r="P30" t="n">
-        <v>48.25701446621328</v>
+        <v>48.25701446621331</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.25853619883025</v>
+        <v>32.25853619883027</v>
       </c>
       <c r="R30" t="n">
-        <v>15.69034629022269</v>
+        <v>15.6903462902227</v>
       </c>
       <c r="S30" t="n">
-        <v>4.694024903863593</v>
+        <v>4.694024903863596</v>
       </c>
       <c r="T30" t="n">
-        <v>1.018608946080435</v>
+        <v>1.018608946080436</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01662582610577425</v>
+        <v>0.01662582610577426</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2118657184626532</v>
+        <v>0.2118657184626534</v>
       </c>
       <c r="H31" t="n">
-        <v>1.883678842331591</v>
+        <v>1.883678842331592</v>
       </c>
       <c r="I31" t="n">
-        <v>6.371379969767792</v>
+        <v>6.371379969767796</v>
       </c>
       <c r="J31" t="n">
-        <v>14.97890629530958</v>
+        <v>14.97890629530959</v>
       </c>
       <c r="K31" t="n">
-        <v>24.61494438138825</v>
+        <v>24.61494438138827</v>
       </c>
       <c r="L31" t="n">
-        <v>31.49865417943847</v>
+        <v>31.49865417943849</v>
       </c>
       <c r="M31" t="n">
-        <v>33.2109143950139</v>
+        <v>33.21091439501392</v>
       </c>
       <c r="N31" t="n">
-        <v>32.42123308074404</v>
+        <v>32.42123308074406</v>
       </c>
       <c r="O31" t="n">
-        <v>29.94625627870304</v>
+        <v>29.94625627870305</v>
       </c>
       <c r="P31" t="n">
-        <v>25.62419562206489</v>
+        <v>25.6241956220649</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.74086484326817</v>
+        <v>17.74086484326818</v>
       </c>
       <c r="R31" t="n">
-        <v>9.526253122875296</v>
+        <v>9.526253122875303</v>
       </c>
       <c r="S31" t="n">
-        <v>3.692241657208237</v>
+        <v>3.692241657208239</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9052444334313363</v>
+        <v>0.9052444334313369</v>
       </c>
       <c r="U31" t="n">
         <v>0.01155631191614474</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4723182759697337</v>
+        <v>0.472318275969734</v>
       </c>
       <c r="H32" t="n">
-        <v>4.837129543775037</v>
+        <v>4.837129543775039</v>
       </c>
       <c r="I32" t="n">
-        <v>18.20905033432318</v>
+        <v>18.20905033432319</v>
       </c>
       <c r="J32" t="n">
-        <v>40.08742327508622</v>
+        <v>40.08742327508625</v>
       </c>
       <c r="K32" t="n">
-        <v>60.08065589688506</v>
+        <v>60.0806558968851</v>
       </c>
       <c r="L32" t="n">
-        <v>74.53536633509381</v>
+        <v>74.53536633509387</v>
       </c>
       <c r="M32" t="n">
-        <v>82.93495647537057</v>
+        <v>82.93495647537061</v>
       </c>
       <c r="N32" t="n">
-        <v>84.27693077696958</v>
+        <v>84.27693077696964</v>
       </c>
       <c r="O32" t="n">
-        <v>79.58031592029553</v>
+        <v>79.58031592029559</v>
       </c>
       <c r="P32" t="n">
-        <v>67.91995848229273</v>
+        <v>67.91995848229277</v>
       </c>
       <c r="Q32" t="n">
-        <v>51.00506022412662</v>
+        <v>51.00506022412665</v>
       </c>
       <c r="R32" t="n">
-        <v>29.66926290288381</v>
+        <v>29.66926290288383</v>
       </c>
       <c r="S32" t="n">
         <v>10.76295271366032</v>
       </c>
       <c r="T32" t="n">
-        <v>2.06757325305751</v>
+        <v>2.067573253057512</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03778546207757869</v>
+        <v>0.03778546207757871</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2527125568077686</v>
+        <v>0.2527125568077687</v>
       </c>
       <c r="H33" t="n">
-        <v>2.44067127232766</v>
+        <v>2.440671272327661</v>
       </c>
       <c r="I33" t="n">
-        <v>8.700848995355191</v>
+        <v>8.700848995355196</v>
       </c>
       <c r="J33" t="n">
-        <v>23.87579467629888</v>
+        <v>23.87579467629889</v>
       </c>
       <c r="K33" t="n">
-        <v>40.80753598241937</v>
+        <v>40.8075359824194</v>
       </c>
       <c r="L33" t="n">
-        <v>54.87076809109028</v>
+        <v>54.87076809109032</v>
       </c>
       <c r="M33" t="n">
-        <v>64.03159827537188</v>
+        <v>64.03159827537192</v>
       </c>
       <c r="N33" t="n">
-        <v>65.72632414975381</v>
+        <v>65.72632414975385</v>
       </c>
       <c r="O33" t="n">
-        <v>60.12674591732904</v>
+        <v>60.12674591732908</v>
       </c>
       <c r="P33" t="n">
-        <v>48.25701446621328</v>
+        <v>48.25701446621331</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.25853619883025</v>
+        <v>32.25853619883027</v>
       </c>
       <c r="R33" t="n">
-        <v>15.69034629022269</v>
+        <v>15.6903462902227</v>
       </c>
       <c r="S33" t="n">
-        <v>4.694024903863593</v>
+        <v>4.694024903863596</v>
       </c>
       <c r="T33" t="n">
-        <v>1.018608946080435</v>
+        <v>1.018608946080436</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01662582610577425</v>
+        <v>0.01662582610577426</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2118657184626532</v>
+        <v>0.2118657184626534</v>
       </c>
       <c r="H34" t="n">
-        <v>1.883678842331591</v>
+        <v>1.883678842331592</v>
       </c>
       <c r="I34" t="n">
-        <v>6.371379969767792</v>
+        <v>6.371379969767796</v>
       </c>
       <c r="J34" t="n">
-        <v>14.97890629530958</v>
+        <v>14.97890629530959</v>
       </c>
       <c r="K34" t="n">
-        <v>24.61494438138825</v>
+        <v>24.61494438138827</v>
       </c>
       <c r="L34" t="n">
-        <v>31.49865417943847</v>
+        <v>31.49865417943849</v>
       </c>
       <c r="M34" t="n">
-        <v>33.2109143950139</v>
+        <v>33.21091439501392</v>
       </c>
       <c r="N34" t="n">
-        <v>32.42123308074404</v>
+        <v>32.42123308074406</v>
       </c>
       <c r="O34" t="n">
-        <v>29.94625627870304</v>
+        <v>29.94625627870305</v>
       </c>
       <c r="P34" t="n">
-        <v>25.62419562206489</v>
+        <v>25.6241956220649</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.74086484326817</v>
+        <v>17.74086484326818</v>
       </c>
       <c r="R34" t="n">
-        <v>9.526253122875296</v>
+        <v>9.526253122875303</v>
       </c>
       <c r="S34" t="n">
-        <v>3.692241657208237</v>
+        <v>3.692241657208239</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9052444334313363</v>
+        <v>0.9052444334313369</v>
       </c>
       <c r="U34" t="n">
         <v>0.01155631191614474</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4723182759697337</v>
+        <v>0.472318275969734</v>
       </c>
       <c r="H35" t="n">
-        <v>4.837129543775037</v>
+        <v>4.837129543775039</v>
       </c>
       <c r="I35" t="n">
-        <v>18.20905033432318</v>
+        <v>18.20905033432319</v>
       </c>
       <c r="J35" t="n">
-        <v>40.08742327508622</v>
+        <v>40.08742327508625</v>
       </c>
       <c r="K35" t="n">
-        <v>60.08065589688506</v>
+        <v>60.0806558968851</v>
       </c>
       <c r="L35" t="n">
-        <v>74.53536633509381</v>
+        <v>74.53536633509387</v>
       </c>
       <c r="M35" t="n">
-        <v>82.93495647537057</v>
+        <v>82.93495647537061</v>
       </c>
       <c r="N35" t="n">
-        <v>84.27693077696958</v>
+        <v>84.27693077696964</v>
       </c>
       <c r="O35" t="n">
-        <v>79.58031592029553</v>
+        <v>79.58031592029559</v>
       </c>
       <c r="P35" t="n">
-        <v>67.91995848229273</v>
+        <v>67.91995848229277</v>
       </c>
       <c r="Q35" t="n">
-        <v>51.00506022412662</v>
+        <v>51.00506022412665</v>
       </c>
       <c r="R35" t="n">
-        <v>29.66926290288381</v>
+        <v>29.66926290288383</v>
       </c>
       <c r="S35" t="n">
         <v>10.76295271366032</v>
       </c>
       <c r="T35" t="n">
-        <v>2.06757325305751</v>
+        <v>2.067573253057512</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03778546207757869</v>
+        <v>0.03778546207757871</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2527125568077686</v>
+        <v>0.2527125568077687</v>
       </c>
       <c r="H36" t="n">
-        <v>2.44067127232766</v>
+        <v>2.440671272327661</v>
       </c>
       <c r="I36" t="n">
-        <v>8.700848995355191</v>
+        <v>8.700848995355196</v>
       </c>
       <c r="J36" t="n">
-        <v>23.87579467629888</v>
+        <v>23.87579467629889</v>
       </c>
       <c r="K36" t="n">
-        <v>40.80753598241937</v>
+        <v>40.8075359824194</v>
       </c>
       <c r="L36" t="n">
-        <v>54.87076809109028</v>
+        <v>54.87076809109032</v>
       </c>
       <c r="M36" t="n">
-        <v>64.03159827537188</v>
+        <v>64.03159827537192</v>
       </c>
       <c r="N36" t="n">
-        <v>65.72632414975381</v>
+        <v>65.72632414975385</v>
       </c>
       <c r="O36" t="n">
-        <v>60.12674591732904</v>
+        <v>60.12674591732908</v>
       </c>
       <c r="P36" t="n">
-        <v>48.25701446621328</v>
+        <v>48.25701446621331</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.25853619883025</v>
+        <v>32.25853619883027</v>
       </c>
       <c r="R36" t="n">
-        <v>15.69034629022269</v>
+        <v>15.6903462902227</v>
       </c>
       <c r="S36" t="n">
-        <v>4.694024903863593</v>
+        <v>4.694024903863596</v>
       </c>
       <c r="T36" t="n">
-        <v>1.018608946080435</v>
+        <v>1.018608946080436</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01662582610577425</v>
+        <v>0.01662582610577426</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2118657184626532</v>
+        <v>0.2118657184626534</v>
       </c>
       <c r="H37" t="n">
-        <v>1.883678842331591</v>
+        <v>1.883678842331592</v>
       </c>
       <c r="I37" t="n">
-        <v>6.371379969767792</v>
+        <v>6.371379969767796</v>
       </c>
       <c r="J37" t="n">
-        <v>14.97890629530958</v>
+        <v>14.97890629530959</v>
       </c>
       <c r="K37" t="n">
-        <v>24.61494438138825</v>
+        <v>24.61494438138827</v>
       </c>
       <c r="L37" t="n">
-        <v>31.49865417943847</v>
+        <v>31.49865417943849</v>
       </c>
       <c r="M37" t="n">
-        <v>33.2109143950139</v>
+        <v>33.21091439501392</v>
       </c>
       <c r="N37" t="n">
-        <v>32.42123308074404</v>
+        <v>32.42123308074406</v>
       </c>
       <c r="O37" t="n">
-        <v>29.94625627870304</v>
+        <v>29.94625627870305</v>
       </c>
       <c r="P37" t="n">
-        <v>25.62419562206489</v>
+        <v>25.6241956220649</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.74086484326817</v>
+        <v>17.74086484326818</v>
       </c>
       <c r="R37" t="n">
-        <v>9.526253122875296</v>
+        <v>9.526253122875303</v>
       </c>
       <c r="S37" t="n">
-        <v>3.692241657208237</v>
+        <v>3.692241657208239</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9052444334313363</v>
+        <v>0.9052444334313369</v>
       </c>
       <c r="U37" t="n">
         <v>0.01155631191614474</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4723182759697337</v>
+        <v>0.472318275969734</v>
       </c>
       <c r="H38" t="n">
-        <v>4.837129543775037</v>
+        <v>4.837129543775039</v>
       </c>
       <c r="I38" t="n">
-        <v>18.20905033432318</v>
+        <v>18.20905033432319</v>
       </c>
       <c r="J38" t="n">
-        <v>40.08742327508622</v>
+        <v>40.08742327508625</v>
       </c>
       <c r="K38" t="n">
-        <v>60.08065589688506</v>
+        <v>60.0806558968851</v>
       </c>
       <c r="L38" t="n">
-        <v>74.53536633509381</v>
+        <v>74.53536633509387</v>
       </c>
       <c r="M38" t="n">
-        <v>82.93495647537057</v>
+        <v>82.93495647537061</v>
       </c>
       <c r="N38" t="n">
-        <v>84.27693077696958</v>
+        <v>84.27693077696964</v>
       </c>
       <c r="O38" t="n">
-        <v>79.58031592029553</v>
+        <v>79.58031592029559</v>
       </c>
       <c r="P38" t="n">
-        <v>67.91995848229273</v>
+        <v>67.91995848229277</v>
       </c>
       <c r="Q38" t="n">
-        <v>51.00506022412662</v>
+        <v>51.00506022412665</v>
       </c>
       <c r="R38" t="n">
-        <v>29.66926290288381</v>
+        <v>29.66926290288383</v>
       </c>
       <c r="S38" t="n">
         <v>10.76295271366032</v>
       </c>
       <c r="T38" t="n">
-        <v>2.06757325305751</v>
+        <v>2.067573253057512</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03778546207757869</v>
+        <v>0.03778546207757871</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2527125568077686</v>
+        <v>0.2527125568077687</v>
       </c>
       <c r="H39" t="n">
-        <v>2.44067127232766</v>
+        <v>2.440671272327661</v>
       </c>
       <c r="I39" t="n">
-        <v>8.700848995355191</v>
+        <v>8.700848995355196</v>
       </c>
       <c r="J39" t="n">
-        <v>23.87579467629888</v>
+        <v>23.87579467629889</v>
       </c>
       <c r="K39" t="n">
-        <v>40.80753598241937</v>
+        <v>40.8075359824194</v>
       </c>
       <c r="L39" t="n">
-        <v>54.87076809109028</v>
+        <v>54.87076809109032</v>
       </c>
       <c r="M39" t="n">
-        <v>64.03159827537188</v>
+        <v>64.03159827537192</v>
       </c>
       <c r="N39" t="n">
-        <v>65.72632414975381</v>
+        <v>65.72632414975385</v>
       </c>
       <c r="O39" t="n">
-        <v>60.12674591732904</v>
+        <v>60.12674591732908</v>
       </c>
       <c r="P39" t="n">
-        <v>48.25701446621328</v>
+        <v>48.25701446621331</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.25853619883025</v>
+        <v>32.25853619883027</v>
       </c>
       <c r="R39" t="n">
-        <v>15.69034629022269</v>
+        <v>15.6903462902227</v>
       </c>
       <c r="S39" t="n">
-        <v>4.694024903863593</v>
+        <v>4.694024903863596</v>
       </c>
       <c r="T39" t="n">
-        <v>1.018608946080435</v>
+        <v>1.018608946080436</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01662582610577425</v>
+        <v>0.01662582610577426</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2118657184626532</v>
+        <v>0.2118657184626534</v>
       </c>
       <c r="H40" t="n">
-        <v>1.883678842331591</v>
+        <v>1.883678842331592</v>
       </c>
       <c r="I40" t="n">
-        <v>6.371379969767792</v>
+        <v>6.371379969767796</v>
       </c>
       <c r="J40" t="n">
-        <v>14.97890629530958</v>
+        <v>14.97890629530959</v>
       </c>
       <c r="K40" t="n">
-        <v>24.61494438138825</v>
+        <v>24.61494438138827</v>
       </c>
       <c r="L40" t="n">
-        <v>31.49865417943847</v>
+        <v>31.49865417943849</v>
       </c>
       <c r="M40" t="n">
-        <v>33.2109143950139</v>
+        <v>33.21091439501392</v>
       </c>
       <c r="N40" t="n">
-        <v>32.42123308074404</v>
+        <v>32.42123308074406</v>
       </c>
       <c r="O40" t="n">
-        <v>29.94625627870304</v>
+        <v>29.94625627870305</v>
       </c>
       <c r="P40" t="n">
-        <v>25.62419562206489</v>
+        <v>25.6241956220649</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.74086484326817</v>
+        <v>17.74086484326818</v>
       </c>
       <c r="R40" t="n">
-        <v>9.526253122875296</v>
+        <v>9.526253122875303</v>
       </c>
       <c r="S40" t="n">
-        <v>3.692241657208237</v>
+        <v>3.692241657208239</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9052444334313363</v>
+        <v>0.9052444334313369</v>
       </c>
       <c r="U40" t="n">
         <v>0.01155631191614474</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4723182759697337</v>
+        <v>0.472318275969734</v>
       </c>
       <c r="H41" t="n">
-        <v>4.837129543775037</v>
+        <v>4.837129543775039</v>
       </c>
       <c r="I41" t="n">
-        <v>18.20905033432318</v>
+        <v>18.20905033432319</v>
       </c>
       <c r="J41" t="n">
-        <v>40.08742327508622</v>
+        <v>40.08742327508625</v>
       </c>
       <c r="K41" t="n">
-        <v>60.08065589688506</v>
+        <v>60.0806558968851</v>
       </c>
       <c r="L41" t="n">
-        <v>74.53536633509381</v>
+        <v>74.53536633509387</v>
       </c>
       <c r="M41" t="n">
-        <v>82.93495647537057</v>
+        <v>82.93495647537061</v>
       </c>
       <c r="N41" t="n">
-        <v>84.27693077696958</v>
+        <v>84.27693077696964</v>
       </c>
       <c r="O41" t="n">
-        <v>79.58031592029553</v>
+        <v>79.58031592029559</v>
       </c>
       <c r="P41" t="n">
-        <v>67.91995848229273</v>
+        <v>67.91995848229277</v>
       </c>
       <c r="Q41" t="n">
-        <v>51.00506022412662</v>
+        <v>51.00506022412665</v>
       </c>
       <c r="R41" t="n">
-        <v>29.66926290288381</v>
+        <v>29.66926290288383</v>
       </c>
       <c r="S41" t="n">
         <v>10.76295271366032</v>
       </c>
       <c r="T41" t="n">
-        <v>2.06757325305751</v>
+        <v>2.067573253057512</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03778546207757869</v>
+        <v>0.03778546207757871</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2527125568077686</v>
+        <v>0.2527125568077687</v>
       </c>
       <c r="H42" t="n">
-        <v>2.44067127232766</v>
+        <v>2.440671272327661</v>
       </c>
       <c r="I42" t="n">
-        <v>8.700848995355191</v>
+        <v>8.700848995355196</v>
       </c>
       <c r="J42" t="n">
-        <v>23.87579467629888</v>
+        <v>23.87579467629889</v>
       </c>
       <c r="K42" t="n">
-        <v>40.80753598241937</v>
+        <v>40.8075359824194</v>
       </c>
       <c r="L42" t="n">
-        <v>54.87076809109028</v>
+        <v>54.87076809109032</v>
       </c>
       <c r="M42" t="n">
-        <v>64.03159827537188</v>
+        <v>64.03159827537192</v>
       </c>
       <c r="N42" t="n">
-        <v>65.72632414975381</v>
+        <v>65.72632414975385</v>
       </c>
       <c r="O42" t="n">
-        <v>60.12674591732904</v>
+        <v>60.12674591732908</v>
       </c>
       <c r="P42" t="n">
-        <v>48.25701446621328</v>
+        <v>48.25701446621331</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.25853619883025</v>
+        <v>32.25853619883027</v>
       </c>
       <c r="R42" t="n">
-        <v>15.69034629022269</v>
+        <v>15.6903462902227</v>
       </c>
       <c r="S42" t="n">
-        <v>4.694024903863593</v>
+        <v>4.694024903863596</v>
       </c>
       <c r="T42" t="n">
-        <v>1.018608946080435</v>
+        <v>1.018608946080436</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01662582610577425</v>
+        <v>0.01662582610577426</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2118657184626532</v>
+        <v>0.2118657184626534</v>
       </c>
       <c r="H43" t="n">
-        <v>1.883678842331591</v>
+        <v>1.883678842331592</v>
       </c>
       <c r="I43" t="n">
-        <v>6.371379969767792</v>
+        <v>6.371379969767796</v>
       </c>
       <c r="J43" t="n">
-        <v>14.97890629530958</v>
+        <v>14.97890629530959</v>
       </c>
       <c r="K43" t="n">
-        <v>24.61494438138825</v>
+        <v>24.61494438138827</v>
       </c>
       <c r="L43" t="n">
-        <v>31.49865417943847</v>
+        <v>31.49865417943849</v>
       </c>
       <c r="M43" t="n">
-        <v>33.2109143950139</v>
+        <v>33.21091439501392</v>
       </c>
       <c r="N43" t="n">
-        <v>32.42123308074404</v>
+        <v>32.42123308074406</v>
       </c>
       <c r="O43" t="n">
-        <v>29.94625627870304</v>
+        <v>29.94625627870305</v>
       </c>
       <c r="P43" t="n">
-        <v>25.62419562206489</v>
+        <v>25.6241956220649</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.74086484326817</v>
+        <v>17.74086484326818</v>
       </c>
       <c r="R43" t="n">
-        <v>9.526253122875296</v>
+        <v>9.526253122875303</v>
       </c>
       <c r="S43" t="n">
-        <v>3.692241657208237</v>
+        <v>3.692241657208239</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9052444334313363</v>
+        <v>0.9052444334313369</v>
       </c>
       <c r="U43" t="n">
         <v>0.01155631191614474</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4723182759697337</v>
+        <v>0.472318275969734</v>
       </c>
       <c r="H44" t="n">
-        <v>4.837129543775037</v>
+        <v>4.837129543775039</v>
       </c>
       <c r="I44" t="n">
-        <v>18.20905033432318</v>
+        <v>18.20905033432319</v>
       </c>
       <c r="J44" t="n">
-        <v>40.08742327508622</v>
+        <v>40.08742327508625</v>
       </c>
       <c r="K44" t="n">
-        <v>60.08065589688506</v>
+        <v>60.0806558968851</v>
       </c>
       <c r="L44" t="n">
-        <v>74.53536633509381</v>
+        <v>74.53536633509387</v>
       </c>
       <c r="M44" t="n">
-        <v>82.93495647537057</v>
+        <v>82.93495647537061</v>
       </c>
       <c r="N44" t="n">
-        <v>84.27693077696958</v>
+        <v>84.27693077696964</v>
       </c>
       <c r="O44" t="n">
-        <v>79.58031592029553</v>
+        <v>79.58031592029559</v>
       </c>
       <c r="P44" t="n">
-        <v>67.91995848229273</v>
+        <v>67.91995848229277</v>
       </c>
       <c r="Q44" t="n">
-        <v>51.00506022412662</v>
+        <v>51.00506022412665</v>
       </c>
       <c r="R44" t="n">
-        <v>29.66926290288381</v>
+        <v>29.66926290288383</v>
       </c>
       <c r="S44" t="n">
         <v>10.76295271366032</v>
       </c>
       <c r="T44" t="n">
-        <v>2.06757325305751</v>
+        <v>2.067573253057512</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03778546207757869</v>
+        <v>0.03778546207757871</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2527125568077686</v>
+        <v>0.2527125568077687</v>
       </c>
       <c r="H45" t="n">
-        <v>2.44067127232766</v>
+        <v>2.440671272327661</v>
       </c>
       <c r="I45" t="n">
-        <v>8.700848995355191</v>
+        <v>8.700848995355196</v>
       </c>
       <c r="J45" t="n">
-        <v>23.87579467629888</v>
+        <v>23.87579467629889</v>
       </c>
       <c r="K45" t="n">
-        <v>40.80753598241937</v>
+        <v>40.8075359824194</v>
       </c>
       <c r="L45" t="n">
-        <v>54.87076809109028</v>
+        <v>54.87076809109032</v>
       </c>
       <c r="M45" t="n">
-        <v>64.03159827537188</v>
+        <v>64.03159827537192</v>
       </c>
       <c r="N45" t="n">
-        <v>65.72632414975381</v>
+        <v>65.72632414975385</v>
       </c>
       <c r="O45" t="n">
-        <v>60.12674591732904</v>
+        <v>60.12674591732908</v>
       </c>
       <c r="P45" t="n">
-        <v>48.25701446621328</v>
+        <v>48.25701446621331</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.25853619883025</v>
+        <v>32.25853619883027</v>
       </c>
       <c r="R45" t="n">
-        <v>15.69034629022269</v>
+        <v>15.6903462902227</v>
       </c>
       <c r="S45" t="n">
-        <v>4.694024903863593</v>
+        <v>4.694024903863596</v>
       </c>
       <c r="T45" t="n">
-        <v>1.018608946080435</v>
+        <v>1.018608946080436</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01662582610577425</v>
+        <v>0.01662582610577426</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2118657184626532</v>
+        <v>0.2118657184626534</v>
       </c>
       <c r="H46" t="n">
-        <v>1.883678842331591</v>
+        <v>1.883678842331592</v>
       </c>
       <c r="I46" t="n">
-        <v>6.371379969767792</v>
+        <v>6.371379969767796</v>
       </c>
       <c r="J46" t="n">
-        <v>14.97890629530958</v>
+        <v>14.97890629530959</v>
       </c>
       <c r="K46" t="n">
-        <v>24.61494438138825</v>
+        <v>24.61494438138827</v>
       </c>
       <c r="L46" t="n">
-        <v>31.49865417943847</v>
+        <v>31.49865417943849</v>
       </c>
       <c r="M46" t="n">
-        <v>33.2109143950139</v>
+        <v>33.21091439501392</v>
       </c>
       <c r="N46" t="n">
-        <v>32.42123308074404</v>
+        <v>32.42123308074406</v>
       </c>
       <c r="O46" t="n">
-        <v>29.94625627870304</v>
+        <v>29.94625627870305</v>
       </c>
       <c r="P46" t="n">
-        <v>25.62419562206489</v>
+        <v>25.6241956220649</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.74086484326817</v>
+        <v>17.74086484326818</v>
       </c>
       <c r="R46" t="n">
-        <v>9.526253122875296</v>
+        <v>9.526253122875303</v>
       </c>
       <c r="S46" t="n">
-        <v>3.692241657208237</v>
+        <v>3.692241657208239</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9052444334313363</v>
+        <v>0.9052444334313369</v>
       </c>
       <c r="U46" t="n">
         <v>0.01155631191614474</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12.65881997533115</v>
+        <v>12.65881997533116</v>
       </c>
       <c r="J11" t="n">
-        <v>28.13813392047371</v>
+        <v>63.96717795981385</v>
       </c>
       <c r="K11" t="n">
+        <v>44.91646406331844</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>59.78952639179261</v>
+      </c>
+      <c r="O11" t="n">
         <v>103.0193684323636</v>
       </c>
-      <c r="L11" t="n">
-        <v>43.69461057652046</v>
-      </c>
-      <c r="M11" t="n">
-        <v>74.60203187822583</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>54.40776371002269</v>
-      </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>97.88579154330033</v>
       </c>
       <c r="R11" t="n">
-        <v>84.72580417314802</v>
+        <v>19.00938430016559</v>
       </c>
       <c r="S11" t="n">
-        <v>6.668542338828864</v>
+        <v>6.668542338828869</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>99.2222339444203</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>55.5061814703079</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35513,10 +35513,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>37.93651301143966</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>5.779539462672718</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.18229461091899</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35550,7 +35550,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.49169656484472</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35562,19 +35562,19 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>55.8465642539234</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>100.5273454222668</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>101.5396371096141</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>35.02306321067504</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,13 +35583,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>92.82185078433118</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.16152242523621</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>37.1585209571197</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.65881997533112</v>
+        <v>12.65881997533116</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>63.96717795981385</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>44.91646406331844</v>
       </c>
       <c r="L14" t="n">
-        <v>43.69461057652043</v>
+        <v>103.0193684323636</v>
       </c>
       <c r="M14" t="n">
-        <v>57.51438245951169</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>99.63354704921069</v>
+        <v>59.78952639179261</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>103.0193684323636</v>
+        <v>41.61262193843712</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>84.72580417314799</v>
+        <v>75.28255390502872</v>
       </c>
       <c r="S14" t="n">
-        <v>6.668542338828836</v>
+        <v>6.668542338828869</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35702,7 +35702,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>4.091347697175359</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -35717,7 +35717,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>95.13088624724506</v>
+        <v>24.28573240674765</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>74.93650153767263</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35784,13 +35784,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>56.31018619320153</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>14.67524892424338</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>59.50461118848264</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35799,22 +35799,22 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>55.8465642539234</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>100.5273454222667</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>101.539637109614</v>
+        <v>101.5396371096141</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>85.80926513758453</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35878,22 +35878,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>103.0193684323636</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>8.641750479733226</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>103.0193684323636</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35902,13 +35902,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>103.0193684323636</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.5271645815904</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>103.0193684323636</v>
@@ -35917,7 +35917,7 @@
         <v>83.32980512623317</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.88541410185718</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36118,43 +36118,43 @@
         <v>103.0193684323636</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>103.0193684323636</v>
       </c>
       <c r="K20" t="n">
+        <v>8.641750479733211</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>103.0193684323636</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>103.0193684323636</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
       <c r="T20" t="n">
-        <v>15.5271645815904</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>83.32980512623317</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.88541410185718</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36352,20 +36352,20 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>103.0193684323636</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>8.641750479733197</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>103.0193684323636</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
@@ -36376,10 +36376,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>15.52716458159036</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>103.0193684323636</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36391,7 +36391,7 @@
         <v>83.32980512623317</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.88541410185718</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>28.13813392047371</v>
+        <v>220.4049731565565</v>
       </c>
       <c r="K26" t="n">
-        <v>356.403056659152</v>
+        <v>32.25764408798729</v>
       </c>
       <c r="L26" t="n">
-        <v>146.7952509933951</v>
+        <v>392.2774136686501</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>78.66324989590886</v>
       </c>
       <c r="N26" t="n">
         <v>484.4776308284456</v>
       </c>
       <c r="O26" t="n">
-        <v>422.5491249974369</v>
+        <v>230.2822857613542</v>
       </c>
       <c r="P26" t="n">
-        <v>350.7525101345885</v>
+        <v>350.7525101345886</v>
       </c>
       <c r="Q26" t="n">
         <v>233.2812002456646</v>
       </c>
       <c r="R26" t="n">
-        <v>72.06698419781688</v>
+        <v>72.06698419781689</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36650,7 +36650,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>10.84246643425662</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>111.5710553800229</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>23.12920335004102</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>170.820418200429</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36698,7 +36698,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>25.27769303610852</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -36732,46 +36732,46 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>22.9399162500448</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>46.8457912131515</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>24.48772559608664</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>43.18774427859226</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>14.78418419983407</v>
       </c>
       <c r="K28" t="n">
-        <v>2.3454525555054</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>59.08867943975461</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>72.79479135685449</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>76.55340545997262</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>54.53138419274271</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>215.1695941230411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>123.8456608276565</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>28.13813392047371</v>
+        <v>220.4049731565565</v>
       </c>
       <c r="K29" t="n">
-        <v>164.1362174230692</v>
+        <v>164.1362174230693</v>
       </c>
       <c r="L29" t="n">
         <v>256.430165915557</v>
       </c>
       <c r="M29" t="n">
-        <v>148.3483441869031</v>
+        <v>148.348344186903</v>
       </c>
       <c r="N29" t="n">
         <v>484.4776308284456</v>
@@ -36850,10 +36850,10 @@
         <v>350.7525101345886</v>
       </c>
       <c r="Q29" t="n">
-        <v>233.2812002456646</v>
+        <v>41.01436100958185</v>
       </c>
       <c r="R29" t="n">
-        <v>6.350564324834462</v>
+        <v>6.350564324834451</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36887,10 +36887,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>19.55834024776703</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>44.82177367144402</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -36899,19 +36899,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>55.1760346296799</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>25.98657661542933</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>75.58748195628586</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>95.23293624414315</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36935,7 +36935,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>25.27769303610854</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -36972,19 +36972,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>45.8328765895136</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>46.84579121315153</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.48772559608667</v>
+        <v>24.48772559608664</v>
       </c>
       <c r="H31" t="n">
-        <v>31.92334557097479</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>43.18774427859228</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36996,22 +36996,22 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>265.0616305929373</v>
       </c>
       <c r="N31" t="n">
-        <v>62.16402067064276</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>64.23810757580587</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>123.8456608276566</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>24.49970098178856</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>28.13813392047371</v>
+        <v>220.4049731565565</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>32.25764408798729</v>
       </c>
       <c r="L32" t="n">
-        <v>448.6970051516398</v>
+        <v>277.0800956833408</v>
       </c>
       <c r="M32" t="n">
-        <v>246.76814173699</v>
+        <v>259.5769877542012</v>
       </c>
       <c r="N32" t="n">
         <v>292.2107915923629</v>
@@ -37084,13 +37084,13 @@
         <v>422.5491249974369</v>
       </c>
       <c r="P32" t="n">
-        <v>350.7525101345885</v>
+        <v>350.7525101345886</v>
       </c>
       <c r="Q32" t="n">
         <v>233.2812002456646</v>
       </c>
       <c r="R32" t="n">
-        <v>72.06698419781688</v>
+        <v>6.350564324834451</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37121,7 +37121,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>25.73365558621541</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>35.2894219052462</v>
       </c>
       <c r="L33" t="n">
-        <v>170.820418200429</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>109.7973407089674</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37203,40 +37203,40 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>25.02001813745491</v>
       </c>
       <c r="D34" t="n">
         <v>43.65136621787039</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>45.83287658951357</v>
       </c>
       <c r="F34" t="n">
         <v>46.8457912131515</v>
       </c>
       <c r="G34" t="n">
-        <v>24.48772559608664</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>31.92334557097476</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>43.18774427859226</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>113.8865654147196</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>194.6122917915881</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>22.32482079703992</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>49.80492547343473</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.49970098178856</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>30.42048752506859</v>
+        <v>30.42048752506863</v>
       </c>
       <c r="J35" t="n">
-        <v>250.825460681625</v>
+        <v>250.8254606816251</v>
       </c>
       <c r="K35" t="n">
-        <v>355.8535495969898</v>
+        <v>193.2301420283365</v>
       </c>
       <c r="L35" t="n">
-        <v>61.4562781262579</v>
+        <v>425.939624694474</v>
       </c>
       <c r="M35" t="n">
-        <v>75.27605000924916</v>
+        <v>75.27605000924923</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>77.55119394153007</v>
       </c>
       <c r="O35" t="n">
-        <v>425.9396246944741</v>
+        <v>72.16943125976022</v>
       </c>
       <c r="P35" t="n">
-        <v>317.1862732672834</v>
+        <v>381.1729976596573</v>
       </c>
       <c r="Q35" t="n">
-        <v>41.01436100958181</v>
+        <v>51.38669711082852</v>
       </c>
       <c r="R35" t="n">
         <v>102.4874717228855</v>
       </c>
       <c r="S35" t="n">
-        <v>24.4302098885663</v>
+        <v>24.43020988856634</v>
       </c>
       <c r="T35" t="n">
-        <v>1.65905045007748</v>
+        <v>1.65905045007751</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37361,13 +37361,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>9.299419746776239</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>22.81363389664136</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>20.40475839165561</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37424,10 +37424,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>16.91434155767385</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.00463098384697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -37440,19 +37440,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>32.35281014810932</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>76.25336411458215</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>54.90821312115522</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>59.08867943975463</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>54.53138419274273</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>22.90275488695839</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>26.99156886439075</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37506,7 +37506,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.102673409056536</v>
+        <v>4.102673409056564</v>
       </c>
     </row>
     <row r="38">
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>30.42048752506865</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>250.8254606816251</v>
+        <v>131.9291907148709</v>
       </c>
       <c r="K38" t="n">
-        <v>164.1362174230692</v>
+        <v>386.8235441842206</v>
       </c>
       <c r="L38" t="n">
-        <v>349.8576691604866</v>
+        <v>61.45627812625798</v>
       </c>
       <c r="M38" t="n">
-        <v>75.27605000924922</v>
+        <v>425.9396246944743</v>
       </c>
       <c r="N38" t="n">
-        <v>292.2107915923629</v>
+        <v>77.55119394153007</v>
       </c>
       <c r="O38" t="n">
-        <v>72.16943125976019</v>
+        <v>425.9396246944743</v>
       </c>
       <c r="P38" t="n">
-        <v>59.37428948817457</v>
+        <v>115.7080988777621</v>
       </c>
       <c r="Q38" t="n">
-        <v>263.7016877707332</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>102.4874717228855</v>
+        <v>36.77105184990306</v>
       </c>
       <c r="S38" t="n">
-        <v>24.43020988856636</v>
+        <v>24.43020988856634</v>
       </c>
       <c r="T38" t="n">
-        <v>1.659050450077537</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37598,7 +37598,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>43.21839228829688</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>43.21839228829697</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37683,13 +37683,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>76.25336411458221</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>36.44350817146351</v>
+        <v>77.26627873822011</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>54.90821312115525</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37722,10 +37722,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92018850685719</v>
+        <v>28.9769251430838</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2.362970381387339</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>4.102673409056564</v>
       </c>
     </row>
     <row r="41">
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>30.42048752506859</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>250.825460681625</v>
       </c>
       <c r="K41" t="n">
-        <v>39.82087282331393</v>
+        <v>62.67813161305582</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>425.9396246944743</v>
       </c>
       <c r="M41" t="n">
-        <v>367.1952571808293</v>
+        <v>75.27605000924915</v>
       </c>
       <c r="N41" t="n">
-        <v>292.2107915923629</v>
+        <v>351.3834997060127</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>72.16943125976013</v>
       </c>
       <c r="P41" t="n">
-        <v>381.1729976596571</v>
+        <v>158.4856708985059</v>
       </c>
       <c r="Q41" t="n">
         <v>263.7016877707331</v>
       </c>
       <c r="R41" t="n">
-        <v>36.77105184990302</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.4302098885663</v>
+        <v>24.43020988856625</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.659050450077424</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>43.21839228829722</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37883,7 +37883,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.21839228829705</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -37926,10 +37926,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>50.35303919000317</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>62.34383309604328</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37953,13 +37953,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>167.6170607929032</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>54.92018850685709</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>30.42048752506859</v>
+        <v>30.42048752506854</v>
       </c>
       <c r="J44" t="n">
         <v>250.825460681625</v>
       </c>
       <c r="K44" t="n">
-        <v>164.1362174230692</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>246.327333218745</v>
+        <v>130.6357765697235</v>
       </c>
       <c r="M44" t="n">
-        <v>75.27605000924916</v>
+        <v>75.27605000924915</v>
       </c>
       <c r="N44" t="n">
-        <v>77.55119394152999</v>
+        <v>425.9396246944743</v>
       </c>
       <c r="O44" t="n">
-        <v>390.3593648523353</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>59.37428948817451</v>
+        <v>381.1729976596571</v>
       </c>
       <c r="Q44" t="n">
         <v>263.7016877707331</v>
       </c>
       <c r="R44" t="n">
-        <v>102.4874717228855</v>
+        <v>102.4874717228854</v>
       </c>
       <c r="S44" t="n">
-        <v>24.4302098885663</v>
+        <v>24.43020988856625</v>
       </c>
       <c r="T44" t="n">
-        <v>1.65905045007748</v>
+        <v>1.659050450077424</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38105,10 +38105,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>43.21839228829722</v>
       </c>
       <c r="O45" t="n">
-        <v>19.6771852758869</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38123,7 +38123,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>23.54120701241015</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -38160,13 +38160,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>50.36501457570465</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>54.90821312115522</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>62.34383309604334</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>50.64460358434339</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>116.9724572085601</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
